--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1058149.032473864</v>
+        <v>1051800.386676427</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="C11" t="n">
         <v>282.8345199817477</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.56692890250519</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>36.56692890250519</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8924576815066</v>
+        <v>164.6839986796479</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.45370068298722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,25 +1530,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H13" t="n">
         <v>145.9867387589999</v>
       </c>
       <c r="I13" t="n">
-        <v>104.917177886131</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2303766434837</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>33.82158273418409</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.02860181591991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36.5669289025053</v>
       </c>
       <c r="D14" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>282.8345199817477</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.56692890250519</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H15" t="n">
-        <v>77.13048470095015</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>108.7544968155583</v>
+        <v>113.8027326550078</v>
       </c>
       <c r="T15" t="n">
-        <v>170.9219859563939</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>119.7170506634611</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.70573958105298</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -1779,7 +1779,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.9867387589999</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>151.1480880801323</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>159.4212906601551</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>139.6750635311386</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>282.8345199817478</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>282.8345199817478</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>60.22850112887267</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>119.4978842242417</v>
       </c>
       <c r="T17" t="n">
-        <v>212.5537162974182</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0359902972743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>77.13048470095013</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>113.8027326550078</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.9219859563939</v>
+        <v>157.3713583272405</v>
       </c>
       <c r="U18" t="n">
         <v>207.8924576815066</v>
       </c>
       <c r="V18" t="n">
-        <v>182.2660749353053</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>116.9248982674446</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.6788007392551</v>
       </c>
       <c r="H19" t="n">
-        <v>17.50382710589916</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>185.2303766434837</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5357104247566</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>249.1206451999234</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>282.8345199817477</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>282.8345199817477</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>60.22850112887268</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>119.4978842242417</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>282.8345199817477</v>
+        <v>69.39425984680895</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.624410180774505</v>
       </c>
       <c r="T21" t="n">
-        <v>63.42457023675654</v>
+        <v>170.9219859563939</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>152.0805412033574</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.9867387589999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>104.917177886131</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>252.8981044132577</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>282.8345199817478</v>
       </c>
       <c r="D23" t="n">
-        <v>249.1206451999235</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="E23" t="n">
         <v>282.8345199817478</v>
       </c>
       <c r="F23" t="n">
-        <v>282.8345199817478</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>249.1206451999235</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>47.03050508624187</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H24" t="n">
         <v>77.13048470095013</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V24" t="n">
-        <v>26.61931151149166</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>2.385248289237209</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.6788007392551</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>128.7852092433953</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>282.8345199817479</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>249.1206451999236</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.5537162974182</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0359902972743</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>66.36545858697868</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>146.7022213303264</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>207.8924576815066</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -2702,7 +2702,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>103.9086944729304</v>
       </c>
     </row>
     <row r="28">
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>82.52237374770323</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.2303766434837</v>
       </c>
       <c r="T28" t="n">
-        <v>188.7494711971892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5357104247566</v>
+        <v>91.11720282879453</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="E29" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36.5669289025053</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>129.6227609756818</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.4978842242417</v>
       </c>
       <c r="T29" t="n">
-        <v>212.5537162974182</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>70.2810229578275</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>55.55822641796225</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>113.8027326550078</v>
       </c>
       <c r="T30" t="n">
         <v>170.9219859563939</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.53232595004518</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.2303766434837</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U31" t="n">
         <v>282.5357104247566</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>100.2470536059505</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>282.8345199817477</v>
+        <v>199.9035646600113</v>
       </c>
       <c r="F32" t="n">
-        <v>278.9191748843968</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>282.8345199817477</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.4978842242417</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.5537162974182</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0359902972743</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>20.65840686096863</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>77.13048470095013</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>113.8027326550078</v>
       </c>
       <c r="T33" t="n">
-        <v>135.410760360232</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.53232595004518</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5357104247566</v>
+        <v>267.8239806458012</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>282.8345199817479</v>
       </c>
       <c r="D35" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>60.22850112887267</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.56692890250519</v>
+        <v>119.4978842242417</v>
       </c>
       <c r="T35" t="n">
         <v>212.5537162974182</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>282.8345199817479</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>139.6750635311388</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>20.47734474418157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.30492916047574</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.13048470095013</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>12.2316799743332</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>113.8027326550078</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.9867387589999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.917177886131</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.52237374770323</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>179.446886846537</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5357104247566</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>41.72430119942658</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>282.8345199817479</v>
+        <v>249.1206451999235</v>
       </c>
       <c r="C38" t="n">
-        <v>282.8345199817479</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>282.8345199817479</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>60.22850112887267</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.8921440710507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.464656539798574</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>57.82398058772179</v>
       </c>
       <c r="T39" t="n">
-        <v>170.9219859563939</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>115.9485879356706</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.7237173417528</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>249.1206451999235</v>
       </c>
       <c r="W41" t="n">
-        <v>249.1206451999235</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>119.1050395892607</v>
+        <v>27.57143803870716</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>15.23812686945728</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>165.6788007392551</v>
       </c>
       <c r="H43" t="n">
-        <v>145.9867387589999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>104.917177886131</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.52237374770323</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.2303766434837</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.5475437454657</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.41929050871192</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>282.8345199817477</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>282.8345199817477</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>282.8345199817477</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.4978842242417</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.5537162974182</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0359902972743</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>66.36545858697856</v>
       </c>
       <c r="W44" t="n">
-        <v>129.6227609756818</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>132.8734592790554</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.794395807957</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.13048470095013</v>
       </c>
       <c r="I45" t="n">
-        <v>12.2316799743332</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>167.3117457351529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>149.4066576863297</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.9867387589999</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>185.2303766434837</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.5475437454657</v>
@@ -4194,10 +4194,10 @@
         <v>282.5357104247566</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>71.31748260242937</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>916.6373563942451</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="C11" t="n">
-        <v>630.9459220692474</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="D11" t="n">
-        <v>630.9459220692474</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="E11" t="n">
-        <v>345.2544877442498</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F11" t="n">
-        <v>59.56305341925213</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G11" t="n">
-        <v>59.56305341925213</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H11" t="n">
         <v>22.62676159853982</v>
@@ -5047,16 +5047,16 @@
         <v>182.3412069035491</v>
       </c>
       <c r="L11" t="n">
-        <v>341.545455277603</v>
+        <v>341.5454552776028</v>
       </c>
       <c r="M11" t="n">
-        <v>539.2759913070037</v>
+        <v>539.2759913070033</v>
       </c>
       <c r="N11" t="n">
-        <v>743.2049895765124</v>
+        <v>743.2049895765119</v>
       </c>
       <c r="O11" t="n">
-        <v>927.1014400859965</v>
+        <v>927.101440085996</v>
       </c>
       <c r="P11" t="n">
         <v>1061.627155442771</v>
@@ -5077,16 +5077,16 @@
         <v>916.6373563942451</v>
       </c>
       <c r="V11" t="n">
-        <v>916.6373563942451</v>
+        <v>630.9459220692474</v>
       </c>
       <c r="W11" t="n">
-        <v>916.6373563942451</v>
+        <v>630.9459220692474</v>
       </c>
       <c r="X11" t="n">
-        <v>916.6373563942451</v>
+        <v>630.9459220692474</v>
       </c>
       <c r="Y11" t="n">
-        <v>916.6373563942451</v>
+        <v>594.0096302485351</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>683.2324946128033</v>
+        <v>553.1435272342836</v>
       </c>
       <c r="C12" t="n">
-        <v>532.5782641728955</v>
+        <v>402.4892967943758</v>
       </c>
       <c r="D12" t="n">
         <v>402.4892967943758</v>
@@ -5120,25 +5120,25 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J12" t="n">
-        <v>40.60323474099067</v>
+        <v>226.1566956314647</v>
       </c>
       <c r="K12" t="n">
-        <v>122.1285266631556</v>
+        <v>307.6819875536295</v>
       </c>
       <c r="L12" t="n">
-        <v>261.8589942492659</v>
+        <v>447.4124551397398</v>
       </c>
       <c r="M12" t="n">
-        <v>437.4998235738562</v>
+        <v>623.0532844643301</v>
       </c>
       <c r="N12" t="n">
-        <v>627.1549622103051</v>
+        <v>812.7084231007789</v>
       </c>
       <c r="O12" t="n">
-        <v>786.2094950446653</v>
+        <v>971.762955935139</v>
       </c>
       <c r="P12" t="n">
-        <v>901.2982870814221</v>
+        <v>1086.851747971896</v>
       </c>
       <c r="Q12" t="n">
         <v>1131.338079926991</v>
@@ -5153,19 +5153,19 @@
         <v>1131.338079926991</v>
       </c>
       <c r="U12" t="n">
-        <v>921.3456984305194</v>
+        <v>964.990606513205</v>
       </c>
       <c r="V12" t="n">
-        <v>921.3456984305194</v>
+        <v>742.450604884272</v>
       </c>
       <c r="W12" t="n">
-        <v>921.3456984305194</v>
+        <v>742.450604884272</v>
       </c>
       <c r="X12" t="n">
-        <v>921.3456984305194</v>
+        <v>553.1435272342836</v>
       </c>
       <c r="Y12" t="n">
-        <v>835.0288290537646</v>
+        <v>553.1435272342836</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>914.7880391994067</v>
+        <v>492.9992500002011</v>
       </c>
       <c r="C13" t="n">
-        <v>744.582921265396</v>
+        <v>492.9992500002011</v>
       </c>
       <c r="D13" t="n">
-        <v>588.9498081679108</v>
+        <v>492.9992500002011</v>
       </c>
       <c r="E13" t="n">
-        <v>433.3909960271133</v>
+        <v>337.4404378594036</v>
       </c>
       <c r="F13" t="n">
-        <v>276.0650612400862</v>
+        <v>337.4404378594036</v>
       </c>
       <c r="G13" t="n">
-        <v>276.0650612400862</v>
+        <v>170.088113880358</v>
       </c>
       <c r="H13" t="n">
-        <v>128.6037089582681</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I13" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J13" t="n">
-        <v>22.62676159853982</v>
+        <v>55.33665357331055</v>
       </c>
       <c r="K13" t="n">
-        <v>207.1416085247117</v>
+        <v>239.8515004994824</v>
       </c>
       <c r="L13" t="n">
-        <v>251.7381193626666</v>
+        <v>519.8576752814126</v>
       </c>
       <c r="M13" t="n">
-        <v>531.7442941445968</v>
+        <v>571.4882645492519</v>
       </c>
       <c r="N13" t="n">
-        <v>811.750468926527</v>
+        <v>624.5659008255145</v>
       </c>
       <c r="O13" t="n">
-        <v>1091.756643708457</v>
+        <v>904.5720756074447</v>
       </c>
       <c r="P13" t="n">
         <v>1131.338079926991</v>
@@ -5226,25 +5226,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S13" t="n">
-        <v>1131.338079926991</v>
+        <v>944.2366893780173</v>
       </c>
       <c r="T13" t="n">
-        <v>1131.338079926991</v>
+        <v>712.3704835745166</v>
       </c>
       <c r="U13" t="n">
-        <v>1131.338079926991</v>
+        <v>712.3704835745166</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.338079926991</v>
+        <v>712.3704835745166</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.338079926991</v>
+        <v>678.2072686915023</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.338079926991</v>
+        <v>678.2072686915023</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.996057890708</v>
+        <v>678.2072686915023</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>916.6373563942451</v>
+        <v>345.25448774425</v>
       </c>
       <c r="C14" t="n">
-        <v>916.6373563942451</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="D14" t="n">
-        <v>630.9459220692474</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="E14" t="n">
-        <v>345.2544877442498</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F14" t="n">
-        <v>345.2544877442498</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2544877442498</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H14" t="n">
-        <v>59.56305341925213</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I14" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J14" t="n">
-        <v>73.34607175057999</v>
+        <v>73.34607175058022</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3412069035487</v>
+        <v>182.3412069035491</v>
       </c>
       <c r="L14" t="n">
-        <v>341.5454552776027</v>
+        <v>341.545455277603</v>
       </c>
       <c r="M14" t="n">
-        <v>539.2759913070033</v>
+        <v>539.2759913070036</v>
       </c>
       <c r="N14" t="n">
-        <v>743.2049895765119</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O14" t="n">
-        <v>927.1014400859959</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P14" t="n">
-        <v>1061.62715544277</v>
+        <v>1061.627155442771</v>
       </c>
       <c r="Q14" t="n">
         <v>1131.338079926991</v>
@@ -5308,22 +5308,22 @@
         <v>1131.338079926991</v>
       </c>
       <c r="T14" t="n">
-        <v>916.6373563942451</v>
+        <v>916.6373563942453</v>
       </c>
       <c r="U14" t="n">
-        <v>916.6373563942451</v>
+        <v>916.6373563942453</v>
       </c>
       <c r="V14" t="n">
-        <v>916.6373563942451</v>
+        <v>630.9459220692477</v>
       </c>
       <c r="W14" t="n">
-        <v>916.6373563942451</v>
+        <v>345.25448774425</v>
       </c>
       <c r="X14" t="n">
-        <v>916.6373563942451</v>
+        <v>345.25448774425</v>
       </c>
       <c r="Y14" t="n">
-        <v>916.6373563942451</v>
+        <v>345.25448774425</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>517.7260308120898</v>
+        <v>266.0428059052635</v>
       </c>
       <c r="C15" t="n">
-        <v>367.071800372182</v>
+        <v>266.0428059052635</v>
       </c>
       <c r="D15" t="n">
-        <v>236.9828329936624</v>
+        <v>266.0428059052635</v>
       </c>
       <c r="E15" t="n">
-        <v>100.5363421045501</v>
+        <v>266.0428059052635</v>
       </c>
       <c r="F15" t="n">
-        <v>100.5363421045501</v>
+        <v>141.6109997883953</v>
       </c>
       <c r="G15" t="n">
-        <v>100.5363421045501</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H15" t="n">
         <v>22.62676159853982</v>
@@ -5357,25 +5357,25 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J15" t="n">
-        <v>184.1464245306366</v>
+        <v>40.60323474099068</v>
       </c>
       <c r="K15" t="n">
-        <v>265.6717164528015</v>
+        <v>122.1285266631556</v>
       </c>
       <c r="L15" t="n">
-        <v>405.4021840389119</v>
+        <v>261.8589942492659</v>
       </c>
       <c r="M15" t="n">
-        <v>581.0430133635022</v>
+        <v>437.4998235738562</v>
       </c>
       <c r="N15" t="n">
-        <v>770.6981519999511</v>
+        <v>627.1549622103051</v>
       </c>
       <c r="O15" t="n">
-        <v>929.7526848343111</v>
+        <v>786.2094950446653</v>
       </c>
       <c r="P15" t="n">
-        <v>1044.841476871068</v>
+        <v>901.2982870814221</v>
       </c>
       <c r="Q15" t="n">
         <v>1089.327808826163</v>
@@ -5384,25 +5384,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S15" t="n">
-        <v>1021.485052840568</v>
+        <v>1016.385824719912</v>
       </c>
       <c r="T15" t="n">
-        <v>848.836582177544</v>
+        <v>1016.385824719912</v>
       </c>
       <c r="U15" t="n">
-        <v>848.836582177544</v>
+        <v>806.393443223441</v>
       </c>
       <c r="V15" t="n">
-        <v>848.836582177544</v>
+        <v>685.4671294219651</v>
       </c>
       <c r="W15" t="n">
-        <v>848.836582177544</v>
+        <v>455.3498835552519</v>
       </c>
       <c r="X15" t="n">
-        <v>848.836582177544</v>
+        <v>266.0428059052635</v>
       </c>
       <c r="Y15" t="n">
-        <v>669.5223652530511</v>
+        <v>266.0428059052635</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1082.140363178452</v>
+        <v>744.582921265396</v>
       </c>
       <c r="C16" t="n">
-        <v>911.9352452444416</v>
+        <v>744.582921265396</v>
       </c>
       <c r="D16" t="n">
-        <v>756.3021321469564</v>
+        <v>588.9498081679108</v>
       </c>
       <c r="E16" t="n">
-        <v>600.7433200061589</v>
+        <v>433.3909960271133</v>
       </c>
       <c r="F16" t="n">
-        <v>443.4173852191318</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="G16" t="n">
         <v>276.0650612400862</v>
@@ -5436,22 +5436,22 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J16" t="n">
-        <v>55.33665357331056</v>
+        <v>55.33665357331057</v>
       </c>
       <c r="K16" t="n">
-        <v>239.8515004994824</v>
+        <v>239.8515004994825</v>
       </c>
       <c r="L16" t="n">
-        <v>519.8576752814126</v>
+        <v>519.8576752814128</v>
       </c>
       <c r="M16" t="n">
-        <v>799.8638500633429</v>
+        <v>568.9963270270331</v>
       </c>
       <c r="N16" t="n">
-        <v>852.9414863396055</v>
+        <v>755.642857162137</v>
       </c>
       <c r="O16" t="n">
-        <v>888.7637665086573</v>
+        <v>1035.649031944067</v>
       </c>
       <c r="P16" t="n">
         <v>1053.910899881408</v>
@@ -5472,16 +5472,16 @@
         <v>1131.338079926991</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.338079926991</v>
+        <v>978.6632434824129</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.338079926991</v>
+        <v>978.6632434824129</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.338079926991</v>
+        <v>744.582921265396</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.338079926991</v>
+        <v>744.582921265396</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>795.9324228344054</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="C17" t="n">
-        <v>795.9324228344054</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="D17" t="n">
-        <v>795.9324228344054</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="E17" t="n">
-        <v>795.9324228344054</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F17" t="n">
-        <v>654.8465000756795</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G17" t="n">
-        <v>369.1550657506817</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H17" t="n">
-        <v>83.46363142568394</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I17" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J17" t="n">
-        <v>73.34607175058044</v>
+        <v>73.34607175058022</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3412069035492</v>
+        <v>182.3412069035491</v>
       </c>
       <c r="L17" t="n">
-        <v>341.5454552776032</v>
+        <v>341.545455277603</v>
       </c>
       <c r="M17" t="n">
-        <v>539.2759913070038</v>
+        <v>539.2759913070036</v>
       </c>
       <c r="N17" t="n">
         <v>743.2049895765124</v>
       </c>
       <c r="O17" t="n">
-        <v>927.1014400859967</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P17" t="n">
         <v>1061.627155442771</v>
@@ -5545,22 +5545,22 @@
         <v>1010.633146367151</v>
       </c>
       <c r="T17" t="n">
-        <v>795.9324228344054</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="U17" t="n">
-        <v>795.9324228344054</v>
+        <v>755.0412369759647</v>
       </c>
       <c r="V17" t="n">
-        <v>795.9324228344054</v>
+        <v>755.0412369759647</v>
       </c>
       <c r="W17" t="n">
-        <v>795.9324228344054</v>
+        <v>755.0412369759647</v>
       </c>
       <c r="X17" t="n">
-        <v>795.9324228344054</v>
+        <v>469.349802650967</v>
       </c>
       <c r="Y17" t="n">
-        <v>795.9324228344054</v>
+        <v>469.349802650967</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>219.5205802944056</v>
+        <v>309.7274829275599</v>
       </c>
       <c r="C18" t="n">
-        <v>219.5205802944056</v>
+        <v>159.0732524876521</v>
       </c>
       <c r="D18" t="n">
-        <v>219.5205802944056</v>
+        <v>159.0732524876521</v>
       </c>
       <c r="E18" t="n">
-        <v>219.5205802944056</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F18" t="n">
-        <v>219.5205802944056</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G18" t="n">
-        <v>100.5363421045501</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H18" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I18" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J18" t="n">
-        <v>184.1464245306369</v>
+        <v>226.1566956314645</v>
       </c>
       <c r="K18" t="n">
-        <v>265.6717164528018</v>
+        <v>307.6819875536294</v>
       </c>
       <c r="L18" t="n">
-        <v>405.4021840389122</v>
+        <v>447.4124551397398</v>
       </c>
       <c r="M18" t="n">
-        <v>581.0430133635025</v>
+        <v>623.0532844643301</v>
       </c>
       <c r="N18" t="n">
-        <v>770.6981519999514</v>
+        <v>812.708423100779</v>
       </c>
       <c r="O18" t="n">
-        <v>929.7526848343116</v>
+        <v>971.7629559351392</v>
       </c>
       <c r="P18" t="n">
-        <v>1044.841476871068</v>
+        <v>1086.851747971896</v>
       </c>
       <c r="Q18" t="n">
-        <v>1089.327808826163</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R18" t="n">
         <v>1131.338079926991</v>
       </c>
       <c r="S18" t="n">
-        <v>1016.385824719913</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T18" t="n">
-        <v>843.7373540568883</v>
+        <v>972.3771119196773</v>
       </c>
       <c r="U18" t="n">
-        <v>633.744972560417</v>
+        <v>762.384730423206</v>
       </c>
       <c r="V18" t="n">
-        <v>449.6378261611187</v>
+        <v>539.844728794273</v>
       </c>
       <c r="W18" t="n">
-        <v>219.5205802944056</v>
+        <v>309.7274829275599</v>
       </c>
       <c r="X18" t="n">
-        <v>219.5205802944056</v>
+        <v>309.7274829275599</v>
       </c>
       <c r="Y18" t="n">
-        <v>219.5205802944056</v>
+        <v>309.7274829275599</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>207.6597190178876</v>
+        <v>360.1842035115962</v>
       </c>
       <c r="C19" t="n">
-        <v>207.6597190178876</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="D19" t="n">
-        <v>207.6597190178876</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="E19" t="n">
-        <v>207.6597190178876</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="F19" t="n">
-        <v>207.6597190178876</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="G19" t="n">
-        <v>40.307395038842</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H19" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I19" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J19" t="n">
-        <v>55.33665357331057</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="K19" t="n">
-        <v>239.8515004994825</v>
+        <v>207.1416085247117</v>
       </c>
       <c r="L19" t="n">
-        <v>519.8576752814129</v>
+        <v>487.147783306642</v>
       </c>
       <c r="M19" t="n">
-        <v>568.9963270270332</v>
+        <v>553.0638624257895</v>
       </c>
       <c r="N19" t="n">
-        <v>624.5659008255149</v>
+        <v>833.0700372077197</v>
       </c>
       <c r="O19" t="n">
-        <v>904.5720756074452</v>
+        <v>1113.07621198965</v>
       </c>
       <c r="P19" t="n">
         <v>1131.338079926991</v>
@@ -5700,25 +5700,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S19" t="n">
-        <v>944.2366893780178</v>
+        <v>944.2366893780176</v>
       </c>
       <c r="T19" t="n">
-        <v>944.2366893780178</v>
+        <v>712.3704835745168</v>
       </c>
       <c r="U19" t="n">
-        <v>658.8470828883646</v>
+        <v>712.3704835745168</v>
       </c>
       <c r="V19" t="n">
-        <v>392.8677377091889</v>
+        <v>712.3704835745168</v>
       </c>
       <c r="W19" t="n">
-        <v>392.8677377091889</v>
+        <v>712.3704835745168</v>
       </c>
       <c r="X19" t="n">
-        <v>392.8677377091889</v>
+        <v>478.2901613574999</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.8677377091889</v>
+        <v>478.2901613574999</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>594.0096302485351</v>
+        <v>940.5379344006769</v>
       </c>
       <c r="C20" t="n">
-        <v>594.0096302485351</v>
+        <v>940.5379344006769</v>
       </c>
       <c r="D20" t="n">
-        <v>594.0096302485351</v>
+        <v>940.5379344006769</v>
       </c>
       <c r="E20" t="n">
-        <v>308.3181959235375</v>
+        <v>654.8465000756793</v>
       </c>
       <c r="F20" t="n">
-        <v>308.3181959235375</v>
+        <v>369.1550657506816</v>
       </c>
       <c r="G20" t="n">
-        <v>308.3181959235375</v>
+        <v>369.1550657506816</v>
       </c>
       <c r="H20" t="n">
-        <v>22.62676159853982</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="I20" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J20" t="n">
-        <v>73.34607175058034</v>
+        <v>73.34607175057999</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3412069035491</v>
+        <v>182.3412069035492</v>
       </c>
       <c r="L20" t="n">
-        <v>341.545455277603</v>
+        <v>341.5454552776032</v>
       </c>
       <c r="M20" t="n">
-        <v>539.2759913070036</v>
+        <v>539.2759913070038</v>
       </c>
       <c r="N20" t="n">
-        <v>743.2049895765122</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O20" t="n">
-        <v>927.1014400859963</v>
+        <v>927.1014400859964</v>
       </c>
       <c r="P20" t="n">
         <v>1061.627155442771</v>
@@ -5779,25 +5779,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S20" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="T20" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="U20" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="V20" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="W20" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="X20" t="n">
-        <v>845.6466456019931</v>
+        <v>940.5379344006769</v>
       </c>
       <c r="Y20" t="n">
-        <v>845.6466456019931</v>
+        <v>940.5379344006769</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>283.5050586045203</v>
+        <v>173.2809920384476</v>
       </c>
       <c r="C21" t="n">
-        <v>283.5050586045203</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="D21" t="n">
-        <v>283.5050586045203</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="E21" t="n">
-        <v>147.058567715408</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F21" t="n">
         <v>22.62676159853982</v>
@@ -5831,19 +5831,19 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J21" t="n">
-        <v>40.60323474099067</v>
+        <v>184.1464245306366</v>
       </c>
       <c r="K21" t="n">
-        <v>122.1285266631556</v>
+        <v>265.6717164528015</v>
       </c>
       <c r="L21" t="n">
-        <v>261.8589942492659</v>
+        <v>405.4021840389119</v>
       </c>
       <c r="M21" t="n">
-        <v>490.6919772180207</v>
+        <v>581.0430133635022</v>
       </c>
       <c r="N21" t="n">
-        <v>770.6981519999509</v>
+        <v>770.6981519999511</v>
       </c>
       <c r="O21" t="n">
         <v>929.7526848343111</v>
@@ -5858,25 +5858,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S21" t="n">
-        <v>1131.338079926991</v>
+        <v>1129.697261562572</v>
       </c>
       <c r="T21" t="n">
-        <v>1067.272857465621</v>
+        <v>957.0487908995478</v>
       </c>
       <c r="U21" t="n">
-        <v>1067.272857465621</v>
+        <v>957.0487908995478</v>
       </c>
       <c r="V21" t="n">
-        <v>844.7328558366876</v>
+        <v>734.5087892706149</v>
       </c>
       <c r="W21" t="n">
-        <v>614.6156099699745</v>
+        <v>504.3915434039017</v>
       </c>
       <c r="X21" t="n">
-        <v>614.6156099699745</v>
+        <v>504.3915434039017</v>
       </c>
       <c r="Y21" t="n">
-        <v>435.3013930454816</v>
+        <v>325.077326479409</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>908.2260187436341</v>
+        <v>192.8318795325506</v>
       </c>
       <c r="C22" t="n">
-        <v>908.2260187436341</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="D22" t="n">
-        <v>752.5929056461489</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="E22" t="n">
-        <v>597.0340935053514</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F22" t="n">
-        <v>443.4173852191318</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G22" t="n">
-        <v>276.0650612400862</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H22" t="n">
-        <v>128.6037089582681</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I22" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J22" t="n">
-        <v>55.33665357331056</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="K22" t="n">
-        <v>239.8515004994825</v>
+        <v>42.28653578203033</v>
       </c>
       <c r="L22" t="n">
-        <v>458.2388043346174</v>
+        <v>322.2927105639606</v>
       </c>
       <c r="M22" t="n">
-        <v>738.2449791165476</v>
+        <v>553.0638624257895</v>
       </c>
       <c r="N22" t="n">
-        <v>791.3226153928102</v>
+        <v>833.0700372077197</v>
       </c>
       <c r="O22" t="n">
-        <v>827.1448955618621</v>
+        <v>1113.07621198965</v>
       </c>
       <c r="P22" t="n">
-        <v>1053.910899881408</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="Q22" t="n">
         <v>1131.338079926991</v>
@@ -5940,22 +5940,22 @@
         <v>1131.338079926991</v>
       </c>
       <c r="T22" t="n">
-        <v>1131.338079926991</v>
+        <v>899.47187412349</v>
       </c>
       <c r="U22" t="n">
-        <v>1131.338079926991</v>
+        <v>644.0192434030276</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.338079926991</v>
+        <v>378.0398982238519</v>
       </c>
       <c r="W22" t="n">
-        <v>1131.338079926991</v>
+        <v>378.0398982238519</v>
       </c>
       <c r="X22" t="n">
-        <v>1131.338079926991</v>
+        <v>378.0398982238519</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.2260187436341</v>
+        <v>378.0398982238519</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="C23" t="n">
-        <v>845.6466456019934</v>
+        <v>594.0096302485354</v>
       </c>
       <c r="D23" t="n">
-        <v>594.0096302485354</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="E23" t="n">
-        <v>308.3181959235376</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="F23" t="n">
         <v>22.62676159853983</v>
@@ -6022,19 +6022,19 @@
         <v>1131.338079926991</v>
       </c>
       <c r="U23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="V23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="W23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="X23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="Y23" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>505.7113460398458</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="C24" t="n">
-        <v>355.057115599938</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="D24" t="n">
-        <v>224.9681482214183</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="E24" t="n">
-        <v>224.9681482214183</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="F24" t="n">
-        <v>100.5363421045501</v>
+        <v>231.8758125917118</v>
       </c>
       <c r="G24" t="n">
-        <v>100.5363421045501</v>
+        <v>112.8915744018563</v>
       </c>
       <c r="H24" t="n">
-        <v>22.62676159853983</v>
+        <v>34.9819938958461</v>
       </c>
       <c r="I24" t="n">
         <v>22.62676159853983</v>
       </c>
       <c r="J24" t="n">
-        <v>184.1464245306369</v>
+        <v>226.1566956314648</v>
       </c>
       <c r="K24" t="n">
-        <v>265.6717164528018</v>
+        <v>307.6819875536297</v>
       </c>
       <c r="L24" t="n">
-        <v>405.4021840389122</v>
+        <v>447.41245513974</v>
       </c>
       <c r="M24" t="n">
-        <v>581.0430133635025</v>
+        <v>623.0532844643303</v>
       </c>
       <c r="N24" t="n">
-        <v>770.6981519999514</v>
+        <v>812.7084231007792</v>
       </c>
       <c r="O24" t="n">
-        <v>929.7526848343116</v>
+        <v>971.7629559351394</v>
       </c>
       <c r="P24" t="n">
-        <v>1044.841476871068</v>
+        <v>1086.851747971896</v>
       </c>
       <c r="Q24" t="n">
-        <v>1089.327808826163</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R24" t="n">
         <v>1131.338079926991</v>
@@ -6101,19 +6101,19 @@
         <v>1131.338079926991</v>
       </c>
       <c r="U24" t="n">
-        <v>1131.338079926991</v>
+        <v>921.3456984305199</v>
       </c>
       <c r="V24" t="n">
-        <v>1104.44988648104</v>
+        <v>698.8056968015869</v>
       </c>
       <c r="W24" t="n">
-        <v>874.3326406143269</v>
+        <v>468.6884509348738</v>
       </c>
       <c r="X24" t="n">
-        <v>685.0255629643385</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="Y24" t="n">
-        <v>505.7113460398458</v>
+        <v>279.3813732848855</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>660.9062873091955</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="C25" t="n">
-        <v>658.4969456028953</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="D25" t="n">
-        <v>502.86383250541</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="E25" t="n">
-        <v>347.3050203646125</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="F25" t="n">
         <v>189.9790855775854</v>
@@ -6150,22 +6150,22 @@
         <v>22.62676159853983</v>
       </c>
       <c r="K25" t="n">
-        <v>42.28653578203036</v>
+        <v>151.0339967603217</v>
       </c>
       <c r="L25" t="n">
-        <v>322.2927105639607</v>
+        <v>195.6305075982765</v>
       </c>
       <c r="M25" t="n">
-        <v>371.4313623095809</v>
+        <v>475.6366823802068</v>
       </c>
       <c r="N25" t="n">
-        <v>624.5659008255149</v>
+        <v>755.6428571621371</v>
       </c>
       <c r="O25" t="n">
-        <v>904.5720756074452</v>
+        <v>1035.649031944067</v>
       </c>
       <c r="P25" t="n">
-        <v>1131.338079926991</v>
+        <v>1053.910899881409</v>
       </c>
       <c r="Q25" t="n">
         <v>1131.338079926991</v>
@@ -6192,7 +6192,7 @@
         <v>660.9062873091955</v>
       </c>
       <c r="Y25" t="n">
-        <v>660.9062873091955</v>
+        <v>530.8202173663719</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>845.6466456019937</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="C26" t="n">
-        <v>845.6466456019937</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="D26" t="n">
-        <v>845.6466456019937</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="E26" t="n">
-        <v>559.9552112769959</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="F26" t="n">
-        <v>274.2637769519981</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="G26" t="n">
-        <v>274.2637769519981</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="H26" t="n">
         <v>22.62676159853983</v>
@@ -6226,22 +6226,22 @@
         <v>22.62676159853983</v>
       </c>
       <c r="J26" t="n">
-        <v>73.34607175058068</v>
+        <v>73.34607175058034</v>
       </c>
       <c r="K26" t="n">
-        <v>182.3412069035495</v>
+        <v>182.3412069035491</v>
       </c>
       <c r="L26" t="n">
-        <v>341.5454552776035</v>
+        <v>341.5454552776029</v>
       </c>
       <c r="M26" t="n">
-        <v>539.2759913070042</v>
+        <v>539.2759913070036</v>
       </c>
       <c r="N26" t="n">
-        <v>743.204989576513</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O26" t="n">
-        <v>927.1014400859971</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P26" t="n">
         <v>1061.627155442771</v>
@@ -6256,22 +6256,22 @@
         <v>1131.338079926991</v>
       </c>
       <c r="T26" t="n">
-        <v>1131.338079926991</v>
+        <v>916.6373563942456</v>
       </c>
       <c r="U26" t="n">
-        <v>1131.338079926991</v>
+        <v>661.0454470030593</v>
       </c>
       <c r="V26" t="n">
-        <v>1131.338079926991</v>
+        <v>375.3540126780615</v>
       </c>
       <c r="W26" t="n">
-        <v>1131.338079926991</v>
+        <v>375.3540126780615</v>
       </c>
       <c r="X26" t="n">
-        <v>1131.338079926991</v>
+        <v>375.3540126780615</v>
       </c>
       <c r="Y26" t="n">
-        <v>1131.338079926991</v>
+        <v>308.3181959235376</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>170.8108235483645</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="C27" t="n">
         <v>22.62676159853983</v>
@@ -6305,28 +6305,28 @@
         <v>22.62676159853983</v>
       </c>
       <c r="J27" t="n">
-        <v>184.1464245306372</v>
+        <v>226.1566956314648</v>
       </c>
       <c r="K27" t="n">
-        <v>265.6717164528021</v>
+        <v>307.6819875536297</v>
       </c>
       <c r="L27" t="n">
-        <v>405.4021840389124</v>
+        <v>447.41245513974</v>
       </c>
       <c r="M27" t="n">
-        <v>581.0430133635027</v>
+        <v>623.0532844643303</v>
       </c>
       <c r="N27" t="n">
-        <v>770.6981519999516</v>
+        <v>812.7084231007792</v>
       </c>
       <c r="O27" t="n">
-        <v>929.7526848343118</v>
+        <v>971.7629559351394</v>
       </c>
       <c r="P27" t="n">
-        <v>1044.841476871069</v>
+        <v>1086.851747971896</v>
       </c>
       <c r="Q27" t="n">
-        <v>1089.327808826164</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R27" t="n">
         <v>1131.338079926991</v>
@@ -6338,19 +6338,19 @@
         <v>1131.338079926991</v>
       </c>
       <c r="U27" t="n">
-        <v>921.3456984305201</v>
+        <v>921.3456984305199</v>
       </c>
       <c r="V27" t="n">
-        <v>921.3456984305201</v>
+        <v>698.8056968015869</v>
       </c>
       <c r="W27" t="n">
-        <v>691.228452563807</v>
+        <v>468.6884509348738</v>
       </c>
       <c r="X27" t="n">
-        <v>501.9213749138186</v>
+        <v>279.3813732848855</v>
       </c>
       <c r="Y27" t="n">
-        <v>322.6071579893259</v>
+        <v>174.4230960395012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
       <c r="C28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
       <c r="D28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
       <c r="E28" t="n">
-        <v>22.62676159853983</v>
+        <v>347.3050203646125</v>
       </c>
       <c r="F28" t="n">
-        <v>22.62676159853983</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="G28" t="n">
         <v>22.62676159853983</v>
@@ -6384,25 +6384,25 @@
         <v>22.62676159853983</v>
       </c>
       <c r="J28" t="n">
-        <v>55.33665357331058</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="K28" t="n">
-        <v>239.8515004994825</v>
+        <v>42.28653578203036</v>
       </c>
       <c r="L28" t="n">
-        <v>519.8576752814129</v>
+        <v>295.4210742979643</v>
       </c>
       <c r="M28" t="n">
-        <v>738.2449791165483</v>
+        <v>344.5597260435845</v>
       </c>
       <c r="N28" t="n">
-        <v>791.3226153928109</v>
+        <v>624.5659008255149</v>
       </c>
       <c r="O28" t="n">
-        <v>827.1448955618628</v>
+        <v>904.5720756074452</v>
       </c>
       <c r="P28" t="n">
-        <v>1053.910899881409</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="Q28" t="n">
         <v>1131.338079926991</v>
@@ -6411,25 +6411,25 @@
         <v>1047.982146848503</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.982146848503</v>
+        <v>860.8807562995297</v>
       </c>
       <c r="T28" t="n">
-        <v>857.326115336191</v>
+        <v>860.8807562995297</v>
       </c>
       <c r="U28" t="n">
-        <v>571.9365088465379</v>
+        <v>768.8431776845857</v>
       </c>
       <c r="V28" t="n">
-        <v>305.9571636673622</v>
+        <v>502.86383250541</v>
       </c>
       <c r="W28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
       <c r="X28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.62676159853983</v>
+        <v>502.86383250541</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>630.9459220692477</v>
+        <v>439.2502777171555</v>
       </c>
       <c r="C29" t="n">
-        <v>630.9459220692477</v>
+        <v>439.2502777171555</v>
       </c>
       <c r="D29" t="n">
-        <v>630.9459220692477</v>
+        <v>153.5588433921578</v>
       </c>
       <c r="E29" t="n">
-        <v>345.25448774425</v>
+        <v>153.5588433921578</v>
       </c>
       <c r="F29" t="n">
-        <v>59.56305341925224</v>
+        <v>153.5588433921578</v>
       </c>
       <c r="G29" t="n">
-        <v>22.62676159853982</v>
+        <v>153.5588433921578</v>
       </c>
       <c r="H29" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I29" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J29" t="n">
-        <v>73.34607175058034</v>
+        <v>73.34607175058035</v>
       </c>
       <c r="K29" t="n">
         <v>182.3412069035491</v>
       </c>
       <c r="L29" t="n">
-        <v>341.5454552776032</v>
+        <v>341.5454552776031</v>
       </c>
       <c r="M29" t="n">
-        <v>539.2759913070038</v>
+        <v>539.2759913070037</v>
       </c>
       <c r="N29" t="n">
-        <v>743.2049895765125</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O29" t="n">
-        <v>927.1014400859966</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P29" t="n">
         <v>1061.627155442771</v>
@@ -6490,25 +6490,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S29" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="T29" t="n">
-        <v>916.6373563942453</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="U29" t="n">
-        <v>916.6373563942453</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="V29" t="n">
-        <v>916.6373563942453</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="W29" t="n">
-        <v>630.9459220692477</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="X29" t="n">
-        <v>630.9459220692477</v>
+        <v>724.9417120421533</v>
       </c>
       <c r="Y29" t="n">
-        <v>630.9459220692477</v>
+        <v>439.2502777171555</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>374.3608916976011</v>
+        <v>502.6339419659387</v>
       </c>
       <c r="C30" t="n">
-        <v>223.7066612576933</v>
+        <v>351.9797115260309</v>
       </c>
       <c r="D30" t="n">
-        <v>93.61769387917366</v>
+        <v>351.9797115260309</v>
       </c>
       <c r="E30" t="n">
-        <v>22.62676159853982</v>
+        <v>215.5332206369186</v>
       </c>
       <c r="F30" t="n">
-        <v>22.62676159853982</v>
+        <v>91.1014145200504</v>
       </c>
       <c r="G30" t="n">
-        <v>22.62676159853982</v>
+        <v>34.9819938958461</v>
       </c>
       <c r="H30" t="n">
-        <v>22.62676159853982</v>
+        <v>34.9819938958461</v>
       </c>
       <c r="I30" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J30" t="n">
-        <v>40.60323474099068</v>
+        <v>226.1566956314648</v>
       </c>
       <c r="K30" t="n">
-        <v>142.764604808456</v>
+        <v>307.6819875536297</v>
       </c>
       <c r="L30" t="n">
-        <v>282.4950723945664</v>
+        <v>447.41245513974</v>
       </c>
       <c r="M30" t="n">
-        <v>458.1359017191567</v>
+        <v>623.0532844643303</v>
       </c>
       <c r="N30" t="n">
-        <v>647.7910403556056</v>
+        <v>812.7084231007792</v>
       </c>
       <c r="O30" t="n">
-        <v>806.8455731899658</v>
+        <v>971.7629559351394</v>
       </c>
       <c r="P30" t="n">
         <v>1086.851747971896</v>
@@ -6569,25 +6569,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S30" t="n">
-        <v>1131.338079926991</v>
+        <v>1016.385824719913</v>
       </c>
       <c r="T30" t="n">
-        <v>958.6896092639668</v>
+        <v>843.7373540568883</v>
       </c>
       <c r="U30" t="n">
-        <v>748.6972277674954</v>
+        <v>843.7373540568883</v>
       </c>
       <c r="V30" t="n">
-        <v>526.1572261385625</v>
+        <v>843.7373540568883</v>
       </c>
       <c r="W30" t="n">
-        <v>526.1572261385625</v>
+        <v>843.7373540568883</v>
       </c>
       <c r="X30" t="n">
-        <v>526.1572261385625</v>
+        <v>654.4302764069</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.1572261385625</v>
+        <v>654.4302764069</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.62676159853982</v>
+        <v>325.7212269778432</v>
       </c>
       <c r="C31" t="n">
-        <v>22.62676159853982</v>
+        <v>325.7212269778432</v>
       </c>
       <c r="D31" t="n">
-        <v>22.62676159853982</v>
+        <v>170.088113880358</v>
       </c>
       <c r="E31" t="n">
-        <v>22.62676159853982</v>
+        <v>170.088113880358</v>
       </c>
       <c r="F31" t="n">
-        <v>22.62676159853982</v>
+        <v>170.088113880358</v>
       </c>
       <c r="G31" t="n">
-        <v>22.62676159853982</v>
+        <v>170.088113880358</v>
       </c>
       <c r="H31" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I31" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J31" t="n">
-        <v>55.33665357331057</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="K31" t="n">
-        <v>74.9964277568011</v>
+        <v>42.28653578203036</v>
       </c>
       <c r="L31" t="n">
-        <v>273.0576876438592</v>
+        <v>273.0576876438591</v>
       </c>
       <c r="M31" t="n">
         <v>553.0638624257895</v>
       </c>
       <c r="N31" t="n">
-        <v>833.0700372077197</v>
+        <v>833.0700372077198</v>
       </c>
       <c r="O31" t="n">
         <v>1113.07621198965</v>
@@ -6645,28 +6645,28 @@
         <v>1131.338079926991</v>
       </c>
       <c r="R31" t="n">
-        <v>1091.406437553208</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S31" t="n">
-        <v>1091.406437553208</v>
+        <v>944.2366893780178</v>
       </c>
       <c r="T31" t="n">
-        <v>1091.406437553208</v>
+        <v>712.370483574517</v>
       </c>
       <c r="U31" t="n">
-        <v>806.0168310635548</v>
+        <v>426.9808770848639</v>
       </c>
       <c r="V31" t="n">
-        <v>540.0374858843791</v>
+        <v>426.9808770848639</v>
       </c>
       <c r="W31" t="n">
-        <v>256.7070838155568</v>
+        <v>426.9808770848639</v>
       </c>
       <c r="X31" t="n">
-        <v>22.62676159853982</v>
+        <v>325.7212269778432</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.62676159853982</v>
+        <v>325.7212269778432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="C32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="D32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="E32" t="n">
-        <v>590.0547362108071</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="F32" t="n">
         <v>308.3181959235375</v>
@@ -6700,16 +6700,16 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J32" t="n">
-        <v>73.34607175058034</v>
+        <v>73.34607175058022</v>
       </c>
       <c r="K32" t="n">
         <v>182.3412069035491</v>
       </c>
       <c r="L32" t="n">
-        <v>341.5454552776031</v>
+        <v>341.545455277603</v>
       </c>
       <c r="M32" t="n">
-        <v>539.2759913070037</v>
+        <v>539.2759913070036</v>
       </c>
       <c r="N32" t="n">
         <v>743.2049895765124</v>
@@ -6727,25 +6727,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S32" t="n">
-        <v>1131.338079926991</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="T32" t="n">
-        <v>1131.338079926991</v>
+        <v>795.9324228344052</v>
       </c>
       <c r="U32" t="n">
-        <v>875.7461705358048</v>
+        <v>795.9324228344052</v>
       </c>
       <c r="V32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="W32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="X32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
       <c r="Y32" t="n">
-        <v>875.7461705358048</v>
+        <v>510.2409885094075</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>173.2809920384476</v>
+        <v>252.7428902290539</v>
       </c>
       <c r="C33" t="n">
-        <v>22.62676159853982</v>
+        <v>231.8758125917118</v>
       </c>
       <c r="D33" t="n">
-        <v>22.62676159853982</v>
+        <v>231.8758125917118</v>
       </c>
       <c r="E33" t="n">
-        <v>22.62676159853982</v>
+        <v>231.8758125917118</v>
       </c>
       <c r="F33" t="n">
-        <v>22.62676159853982</v>
+        <v>231.8758125917118</v>
       </c>
       <c r="G33" t="n">
-        <v>22.62676159853982</v>
+        <v>112.8915744018563</v>
       </c>
       <c r="H33" t="n">
-        <v>22.62676159853982</v>
+        <v>34.98199389584609</v>
       </c>
       <c r="I33" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2050536838945</v>
+        <v>40.60323474099068</v>
       </c>
       <c r="K33" t="n">
-        <v>186.7303456060594</v>
+        <v>122.1285266631556</v>
       </c>
       <c r="L33" t="n">
-        <v>326.4608131921698</v>
+        <v>261.8589942492659</v>
       </c>
       <c r="M33" t="n">
-        <v>502.1016425167601</v>
+        <v>437.4998235738562</v>
       </c>
       <c r="N33" t="n">
-        <v>691.756781153209</v>
+        <v>627.1549622103051</v>
       </c>
       <c r="O33" t="n">
-        <v>971.7629559351392</v>
+        <v>786.2094950446653</v>
       </c>
       <c r="P33" t="n">
-        <v>1086.851747971896</v>
+        <v>901.2982870814221</v>
       </c>
       <c r="Q33" t="n">
-        <v>1131.338079926991</v>
+        <v>1089.327808826163</v>
       </c>
       <c r="R33" t="n">
         <v>1131.338079926991</v>
       </c>
       <c r="S33" t="n">
-        <v>1131.338079926991</v>
+        <v>1016.385824719912</v>
       </c>
       <c r="T33" t="n">
-        <v>994.5595341085748</v>
+        <v>1016.385824719912</v>
       </c>
       <c r="U33" t="n">
-        <v>994.5595341085748</v>
+        <v>806.393443223441</v>
       </c>
       <c r="V33" t="n">
-        <v>772.0195324796418</v>
+        <v>583.853441594508</v>
       </c>
       <c r="W33" t="n">
-        <v>541.9022866129287</v>
+        <v>583.853441594508</v>
       </c>
       <c r="X33" t="n">
-        <v>352.5952089629404</v>
+        <v>583.853441594508</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.2809920384476</v>
+        <v>404.5392246700152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.62676159853982</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="C34" t="n">
-        <v>22.62676159853982</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="D34" t="n">
-        <v>22.62676159853982</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="E34" t="n">
-        <v>22.62676159853982</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="F34" t="n">
-        <v>22.62676159853982</v>
+        <v>189.9790855775854</v>
       </c>
       <c r="G34" t="n">
         <v>22.62676159853982</v>
@@ -6864,7 +6864,7 @@
         <v>42.28653578203035</v>
       </c>
       <c r="L34" t="n">
-        <v>322.2927105639606</v>
+        <v>273.0576876438592</v>
       </c>
       <c r="M34" t="n">
         <v>553.0638624257895</v>
@@ -6888,22 +6888,22 @@
         <v>1131.338079926991</v>
       </c>
       <c r="T34" t="n">
-        <v>1091.406437553208</v>
+        <v>899.4718741234902</v>
       </c>
       <c r="U34" t="n">
-        <v>806.0168310635548</v>
+        <v>628.9426007438931</v>
       </c>
       <c r="V34" t="n">
-        <v>540.0374858843791</v>
+        <v>628.9426007438931</v>
       </c>
       <c r="W34" t="n">
-        <v>256.7070838155568</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="X34" t="n">
-        <v>22.62676159853982</v>
+        <v>345.6121986750707</v>
       </c>
       <c r="Y34" t="n">
-        <v>22.62676159853982</v>
+        <v>345.6121986750707</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>879.7010645735334</v>
+        <v>369.1550657506818</v>
       </c>
       <c r="C35" t="n">
-        <v>879.7010645735334</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="D35" t="n">
-        <v>594.0096302485355</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="E35" t="n">
-        <v>308.3181959235376</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="F35" t="n">
-        <v>22.62676159853983</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="G35" t="n">
-        <v>22.62676159853983</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="H35" t="n">
-        <v>22.62676159853983</v>
+        <v>83.46363142568394</v>
       </c>
       <c r="I35" t="n">
         <v>22.62676159853983</v>
       </c>
       <c r="J35" t="n">
-        <v>73.3460717505809</v>
+        <v>73.34607175058068</v>
       </c>
       <c r="K35" t="n">
-        <v>182.3412069035497</v>
+        <v>182.3412069035496</v>
       </c>
       <c r="L35" t="n">
         <v>341.5454552776037</v>
@@ -6949,10 +6949,10 @@
         <v>539.2759913070042</v>
       </c>
       <c r="N35" t="n">
-        <v>743.204989576513</v>
+        <v>743.2049895765128</v>
       </c>
       <c r="O35" t="n">
-        <v>927.1014400859971</v>
+        <v>927.101440085997</v>
       </c>
       <c r="P35" t="n">
         <v>1061.627155442771</v>
@@ -6964,25 +6964,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S35" t="n">
-        <v>1094.401788106279</v>
+        <v>1010.633146367151</v>
       </c>
       <c r="T35" t="n">
-        <v>879.7010645735334</v>
+        <v>795.9324228344057</v>
       </c>
       <c r="U35" t="n">
-        <v>879.7010645735334</v>
+        <v>795.9324228344057</v>
       </c>
       <c r="V35" t="n">
-        <v>879.7010645735334</v>
+        <v>510.2409885094078</v>
       </c>
       <c r="W35" t="n">
-        <v>879.7010645735334</v>
+        <v>510.2409885094078</v>
       </c>
       <c r="X35" t="n">
-        <v>879.7010645735334</v>
+        <v>369.1550657506818</v>
       </c>
       <c r="Y35" t="n">
-        <v>879.7010645735334</v>
+        <v>369.1550657506818</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>552.7244038560391</v>
+        <v>43.31094820882424</v>
       </c>
       <c r="C36" t="n">
-        <v>402.0701734161313</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="D36" t="n">
-        <v>402.0701734161313</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="E36" t="n">
-        <v>356.30761870858</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="F36" t="n">
-        <v>231.8758125917118</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="G36" t="n">
-        <v>112.8915744018563</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="H36" t="n">
-        <v>34.9819938958461</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I36" t="n">
         <v>22.62676159853983</v>
       </c>
       <c r="J36" t="n">
-        <v>226.156695631465</v>
+        <v>184.1464245306372</v>
       </c>
       <c r="K36" t="n">
-        <v>307.6819875536299</v>
+        <v>265.6717164528021</v>
       </c>
       <c r="L36" t="n">
-        <v>447.4124551397402</v>
+        <v>405.4021840389124</v>
       </c>
       <c r="M36" t="n">
-        <v>623.0532844643305</v>
+        <v>581.0430133635027</v>
       </c>
       <c r="N36" t="n">
-        <v>812.7084231007794</v>
+        <v>770.6981519999516</v>
       </c>
       <c r="O36" t="n">
-        <v>971.7629559351396</v>
+        <v>929.7526848343118</v>
       </c>
       <c r="P36" t="n">
-        <v>1086.851747971896</v>
+        <v>1044.841476871069</v>
       </c>
       <c r="Q36" t="n">
-        <v>1131.338079926991</v>
+        <v>1089.327808826164</v>
       </c>
       <c r="R36" t="n">
         <v>1131.338079926991</v>
       </c>
       <c r="S36" t="n">
-        <v>1131.338079926991</v>
+        <v>1016.385824719913</v>
       </c>
       <c r="T36" t="n">
-        <v>1131.338079926991</v>
+        <v>1016.385824719913</v>
       </c>
       <c r="U36" t="n">
-        <v>921.3456984305201</v>
+        <v>1016.385824719913</v>
       </c>
       <c r="V36" t="n">
-        <v>921.3456984305201</v>
+        <v>793.8458230909798</v>
       </c>
       <c r="W36" t="n">
-        <v>921.3456984305201</v>
+        <v>563.7285772242667</v>
       </c>
       <c r="X36" t="n">
-        <v>732.0386207805318</v>
+        <v>374.4214995742784</v>
       </c>
       <c r="Y36" t="n">
-        <v>552.7244038560391</v>
+        <v>195.1072826497856</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="C37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="D37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="E37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="F37" t="n">
-        <v>443.4173852191319</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="G37" t="n">
-        <v>276.0650612400863</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="H37" t="n">
-        <v>128.6037089582681</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I37" t="n">
         <v>22.62676159853983</v>
@@ -7101,16 +7101,16 @@
         <v>239.8515004994825</v>
       </c>
       <c r="L37" t="n">
-        <v>503.9252106801692</v>
+        <v>284.4480113374373</v>
       </c>
       <c r="M37" t="n">
-        <v>553.0638624257895</v>
+        <v>564.4541861193677</v>
       </c>
       <c r="N37" t="n">
-        <v>833.0700372077199</v>
+        <v>844.4603609012981</v>
       </c>
       <c r="O37" t="n">
-        <v>1113.07621198965</v>
+        <v>904.5720756074454</v>
       </c>
       <c r="P37" t="n">
         <v>1131.338079926991</v>
@@ -7119,28 +7119,28 @@
         <v>1131.338079926991</v>
       </c>
       <c r="R37" t="n">
-        <v>1047.982146848503</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S37" t="n">
-        <v>1047.982146848503</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T37" t="n">
-        <v>866.7226651853347</v>
+        <v>899.4718741234907</v>
       </c>
       <c r="U37" t="n">
-        <v>866.7226651853347</v>
+        <v>614.0822676338375</v>
       </c>
       <c r="V37" t="n">
-        <v>600.7433200061589</v>
+        <v>348.1029224546618</v>
       </c>
       <c r="W37" t="n">
-        <v>600.7433200061589</v>
+        <v>64.77252038583941</v>
       </c>
       <c r="X37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="Y37" t="n">
-        <v>600.7433200061589</v>
+        <v>22.62676159853983</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>654.8465000756798</v>
+        <v>879.7010645735329</v>
       </c>
       <c r="C38" t="n">
-        <v>369.1550657506819</v>
+        <v>879.7010645735329</v>
       </c>
       <c r="D38" t="n">
-        <v>369.1550657506819</v>
+        <v>879.7010645735329</v>
       </c>
       <c r="E38" t="n">
-        <v>83.46363142568394</v>
+        <v>594.0096302485352</v>
       </c>
       <c r="F38" t="n">
-        <v>83.46363142568394</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="G38" t="n">
-        <v>83.46363142568394</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H38" t="n">
-        <v>83.46363142568394</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I38" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J38" t="n">
-        <v>73.34607175058022</v>
+        <v>73.34607175058034</v>
       </c>
       <c r="K38" t="n">
-        <v>182.3412069035489</v>
+        <v>182.3412069035491</v>
       </c>
       <c r="L38" t="n">
         <v>341.5454552776029</v>
@@ -7186,7 +7186,7 @@
         <v>539.2759913070036</v>
       </c>
       <c r="N38" t="n">
-        <v>743.2049895765122</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O38" t="n">
         <v>927.1014400859965</v>
@@ -7195,31 +7195,31 @@
         <v>1061.627155442771</v>
       </c>
       <c r="Q38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="U38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="V38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="W38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="X38" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="Y38" t="n">
-        <v>940.5379344006778</v>
+        <v>1131.338079926991</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>438.2719802485251</v>
+        <v>289.1622198661718</v>
       </c>
       <c r="C39" t="n">
-        <v>287.6177498086173</v>
+        <v>289.1622198661718</v>
       </c>
       <c r="D39" t="n">
-        <v>287.6177498086173</v>
+        <v>159.0732524876521</v>
       </c>
       <c r="E39" t="n">
-        <v>151.171258919505</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="F39" t="n">
-        <v>151.171258919505</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="G39" t="n">
-        <v>32.1870207296495</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H39" t="n">
-        <v>32.1870207296495</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I39" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J39" t="n">
-        <v>40.60323474099069</v>
+        <v>40.60323474099068</v>
       </c>
       <c r="K39" t="n">
         <v>122.1285266631556</v>
@@ -7265,40 +7265,40 @@
         <v>437.4998235738562</v>
       </c>
       <c r="N39" t="n">
-        <v>717.5059983557867</v>
+        <v>627.1549622103051</v>
       </c>
       <c r="O39" t="n">
-        <v>929.752684834312</v>
+        <v>786.2094950446653</v>
       </c>
       <c r="P39" t="n">
-        <v>1044.841476871069</v>
+        <v>901.2982870814221</v>
       </c>
       <c r="Q39" t="n">
-        <v>1089.327808826164</v>
+        <v>1089.327808826163</v>
       </c>
       <c r="R39" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S39" t="n">
-        <v>1131.338079926992</v>
+        <v>1072.930018727272</v>
       </c>
       <c r="T39" t="n">
-        <v>958.6896092639674</v>
+        <v>1072.930018727272</v>
       </c>
       <c r="U39" t="n">
-        <v>958.6896092639674</v>
+        <v>1072.930018727272</v>
       </c>
       <c r="V39" t="n">
-        <v>958.6896092639674</v>
+        <v>850.3900170983391</v>
       </c>
       <c r="W39" t="n">
-        <v>958.6896092639674</v>
+        <v>620.2727712316259</v>
       </c>
       <c r="X39" t="n">
-        <v>769.3825316139792</v>
+        <v>620.2727712316259</v>
       </c>
       <c r="Y39" t="n">
-        <v>590.0683146894864</v>
+        <v>440.9585543071331</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.8364122539818</v>
+        <v>170.088113880358</v>
       </c>
       <c r="C40" t="n">
-        <v>452.6312943199711</v>
+        <v>170.088113880358</v>
       </c>
       <c r="D40" t="n">
-        <v>335.5115085263644</v>
+        <v>170.088113880358</v>
       </c>
       <c r="E40" t="n">
-        <v>179.9526963855669</v>
+        <v>170.088113880358</v>
       </c>
       <c r="F40" t="n">
-        <v>22.62676159853983</v>
+        <v>170.088113880358</v>
       </c>
       <c r="G40" t="n">
-        <v>22.62676159853983</v>
+        <v>170.088113880358</v>
       </c>
       <c r="H40" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I40" t="n">
-        <v>22.62676159853983</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="J40" t="n">
-        <v>22.62676159853983</v>
+        <v>55.33665357331057</v>
       </c>
       <c r="K40" t="n">
-        <v>207.1416085247118</v>
+        <v>74.9964277568011</v>
       </c>
       <c r="L40" t="n">
-        <v>444.9224327580496</v>
+        <v>195.6305075982765</v>
       </c>
       <c r="M40" t="n">
-        <v>494.0610845036699</v>
+        <v>475.6366823802068</v>
       </c>
       <c r="N40" t="n">
-        <v>547.1387207799326</v>
+        <v>755.642857162137</v>
       </c>
       <c r="O40" t="n">
-        <v>827.144895561863</v>
+        <v>1035.649031944067</v>
       </c>
       <c r="P40" t="n">
-        <v>1053.910899881409</v>
+        <v>1053.910899881408</v>
       </c>
       <c r="Q40" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R40" t="n">
-        <v>1131.338079926992</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S40" t="n">
-        <v>1131.338079926992</v>
+        <v>961.9201836221902</v>
       </c>
       <c r="T40" t="n">
-        <v>1131.338079926992</v>
+        <v>961.9201836221902</v>
       </c>
       <c r="U40" t="n">
-        <v>845.9484734373385</v>
+        <v>676.530577132537</v>
       </c>
       <c r="V40" t="n">
-        <v>845.9484734373385</v>
+        <v>676.530577132537</v>
       </c>
       <c r="W40" t="n">
-        <v>845.9484734373385</v>
+        <v>393.2001750637146</v>
       </c>
       <c r="X40" t="n">
-        <v>845.9484734373385</v>
+        <v>393.2001750637146</v>
       </c>
       <c r="Y40" t="n">
-        <v>622.8364122539818</v>
+        <v>170.088113880358</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308.3181959235375</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="C41" t="n">
-        <v>308.3181959235375</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="D41" t="n">
-        <v>22.62676159853982</v>
+        <v>594.0096302485354</v>
       </c>
       <c r="E41" t="n">
-        <v>22.62676159853982</v>
+        <v>594.0096302485354</v>
       </c>
       <c r="F41" t="n">
-        <v>22.62676159853982</v>
+        <v>308.3181959235376</v>
       </c>
       <c r="G41" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="H41" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I41" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J41" t="n">
-        <v>73.34607175058034</v>
+        <v>73.34607175058022</v>
       </c>
       <c r="K41" t="n">
-        <v>182.3412069035491</v>
+        <v>182.3412069035489</v>
       </c>
       <c r="L41" t="n">
-        <v>341.545455277603</v>
+        <v>341.5454552776029</v>
       </c>
       <c r="M41" t="n">
         <v>539.2759913070036</v>
@@ -7426,7 +7426,7 @@
         <v>743.2049895765122</v>
       </c>
       <c r="O41" t="n">
-        <v>927.1014400859964</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P41" t="n">
         <v>1061.627155442771</v>
@@ -7447,16 +7447,16 @@
         <v>1131.338079926991</v>
       </c>
       <c r="V41" t="n">
-        <v>1131.338079926991</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="W41" t="n">
-        <v>879.7010645735329</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="X41" t="n">
-        <v>879.7010645735329</v>
+        <v>879.7010645735331</v>
       </c>
       <c r="Y41" t="n">
-        <v>594.0096302485352</v>
+        <v>879.7010645735331</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159.0732524876521</v>
+        <v>309.7274829275599</v>
       </c>
       <c r="C42" t="n">
         <v>159.0732524876521</v>
@@ -7475,43 +7475,43 @@
         <v>159.0732524876521</v>
       </c>
       <c r="E42" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="F42" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="G42" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="H42" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="I42" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J42" t="n">
-        <v>40.60323474099068</v>
+        <v>226.1566956314648</v>
       </c>
       <c r="K42" t="n">
-        <v>265.6717164528016</v>
+        <v>307.6819875536297</v>
       </c>
       <c r="L42" t="n">
-        <v>405.402184038912</v>
+        <v>447.41245513974</v>
       </c>
       <c r="M42" t="n">
-        <v>581.0430133635023</v>
+        <v>623.0532844643303</v>
       </c>
       <c r="N42" t="n">
-        <v>770.6981519999512</v>
+        <v>812.7084231007792</v>
       </c>
       <c r="O42" t="n">
-        <v>929.7526848343114</v>
+        <v>971.7629559351394</v>
       </c>
       <c r="P42" t="n">
-        <v>1044.841476871068</v>
+        <v>1086.851747971896</v>
       </c>
       <c r="Q42" t="n">
-        <v>1089.327808826163</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="R42" t="n">
         <v>1131.338079926991</v>
@@ -7520,22 +7520,22 @@
         <v>1131.338079926991</v>
       </c>
       <c r="T42" t="n">
-        <v>1011.029959129758</v>
+        <v>1103.488142514156</v>
       </c>
       <c r="U42" t="n">
-        <v>801.0375776332866</v>
+        <v>1103.488142514156</v>
       </c>
       <c r="V42" t="n">
-        <v>578.4975760043536</v>
+        <v>880.9481408852228</v>
       </c>
       <c r="W42" t="n">
-        <v>348.3803301376404</v>
+        <v>650.8308950185096</v>
       </c>
       <c r="X42" t="n">
-        <v>159.0732524876521</v>
+        <v>461.5238173685212</v>
       </c>
       <c r="Y42" t="n">
-        <v>159.0732524876521</v>
+        <v>461.5238173685212</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>629.0145504960287</v>
+        <v>608.8407798651383</v>
       </c>
       <c r="C43" t="n">
-        <v>458.8094325620179</v>
+        <v>608.8407798651383</v>
       </c>
       <c r="D43" t="n">
-        <v>458.8094325620179</v>
+        <v>608.8407798651383</v>
       </c>
       <c r="E43" t="n">
-        <v>458.8094325620179</v>
+        <v>453.2819677243407</v>
       </c>
       <c r="F43" t="n">
-        <v>443.4173852191318</v>
+        <v>295.9560329373137</v>
       </c>
       <c r="G43" t="n">
-        <v>276.0650612400862</v>
+        <v>128.6037089582681</v>
       </c>
       <c r="H43" t="n">
         <v>128.6037089582681</v>
       </c>
       <c r="I43" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="J43" t="n">
-        <v>22.62676159853982</v>
+        <v>22.62676159853983</v>
       </c>
       <c r="K43" t="n">
-        <v>207.1416085247117</v>
+        <v>42.28653578203036</v>
       </c>
       <c r="L43" t="n">
-        <v>487.147783306642</v>
+        <v>322.2927105639607</v>
       </c>
       <c r="M43" t="n">
-        <v>553.0638624257895</v>
+        <v>371.4313623095809</v>
       </c>
       <c r="N43" t="n">
-        <v>833.0700372077197</v>
+        <v>651.4375370915113</v>
       </c>
       <c r="O43" t="n">
-        <v>1113.07621198965</v>
+        <v>931.4437118734417</v>
       </c>
       <c r="P43" t="n">
         <v>1131.338079926991</v>
@@ -7593,28 +7593,28 @@
         <v>1131.338079926991</v>
       </c>
       <c r="R43" t="n">
-        <v>1047.982146848503</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="S43" t="n">
-        <v>860.8807562995295</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T43" t="n">
-        <v>629.0145504960287</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="U43" t="n">
-        <v>629.0145504960287</v>
+        <v>1077.379200625262</v>
       </c>
       <c r="V43" t="n">
-        <v>629.0145504960287</v>
+        <v>1077.379200625262</v>
       </c>
       <c r="W43" t="n">
-        <v>629.0145504960287</v>
+        <v>794.0487985564396</v>
       </c>
       <c r="X43" t="n">
-        <v>629.0145504960287</v>
+        <v>794.0487985564396</v>
       </c>
       <c r="Y43" t="n">
-        <v>629.0145504960287</v>
+        <v>794.0487985564396</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>594.0096302485352</v>
+        <v>308.3181959235375</v>
       </c>
       <c r="C44" t="n">
         <v>308.3181959235375</v>
@@ -7639,7 +7639,7 @@
         <v>308.3181959235375</v>
       </c>
       <c r="G44" t="n">
-        <v>308.3181959235375</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="H44" t="n">
         <v>22.62676159853982</v>
@@ -7648,22 +7648,22 @@
         <v>22.62676159853982</v>
       </c>
       <c r="J44" t="n">
-        <v>73.34607175058044</v>
+        <v>73.34607175058022</v>
       </c>
       <c r="K44" t="n">
-        <v>182.3412069035492</v>
+        <v>182.3412069035491</v>
       </c>
       <c r="L44" t="n">
-        <v>341.5454552776032</v>
+        <v>341.545455277603</v>
       </c>
       <c r="M44" t="n">
-        <v>539.2759913070038</v>
+        <v>539.2759913070036</v>
       </c>
       <c r="N44" t="n">
-        <v>743.2049895765125</v>
+        <v>743.2049895765124</v>
       </c>
       <c r="O44" t="n">
-        <v>927.1014400859966</v>
+        <v>927.1014400859965</v>
       </c>
       <c r="P44" t="n">
         <v>1061.627155442771</v>
@@ -7675,25 +7675,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S44" t="n">
-        <v>1010.633146367151</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T44" t="n">
-        <v>1010.633146367151</v>
+        <v>916.6373563942453</v>
       </c>
       <c r="U44" t="n">
-        <v>1010.633146367151</v>
+        <v>661.0454470030591</v>
       </c>
       <c r="V44" t="n">
-        <v>1010.633146367151</v>
+        <v>594.0096302485352</v>
       </c>
       <c r="W44" t="n">
-        <v>879.7010645735329</v>
+        <v>594.0096302485352</v>
       </c>
       <c r="X44" t="n">
-        <v>879.7010645735329</v>
+        <v>594.0096302485352</v>
       </c>
       <c r="Y44" t="n">
-        <v>879.7010645735329</v>
+        <v>594.0096302485352</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>695.5877269101096</v>
+        <v>219.5205802944056</v>
       </c>
       <c r="C45" t="n">
-        <v>544.9334964702018</v>
+        <v>219.5205802944056</v>
       </c>
       <c r="D45" t="n">
-        <v>414.8445290916821</v>
+        <v>219.5205802944056</v>
       </c>
       <c r="E45" t="n">
-        <v>278.3980382025698</v>
+        <v>219.5205802944056</v>
       </c>
       <c r="F45" t="n">
-        <v>153.9662320857016</v>
+        <v>219.5205802944056</v>
       </c>
       <c r="G45" t="n">
-        <v>34.98199389584609</v>
+        <v>100.5363421045501</v>
       </c>
       <c r="H45" t="n">
-        <v>34.98199389584609</v>
+        <v>22.62676159853982</v>
       </c>
       <c r="I45" t="n">
         <v>22.62676159853982</v>
       </c>
       <c r="J45" t="n">
-        <v>226.1566956314645</v>
+        <v>40.60323474099068</v>
       </c>
       <c r="K45" t="n">
-        <v>307.6819875536294</v>
+        <v>122.1285266631556</v>
       </c>
       <c r="L45" t="n">
-        <v>447.4124551397398</v>
+        <v>402.1347014450859</v>
       </c>
       <c r="M45" t="n">
-        <v>623.0532844643301</v>
+        <v>577.7755307696762</v>
       </c>
       <c r="N45" t="n">
-        <v>812.708423100779</v>
+        <v>767.430669406125</v>
       </c>
       <c r="O45" t="n">
-        <v>971.7629559351392</v>
+        <v>926.4852022404853</v>
       </c>
       <c r="P45" t="n">
-        <v>1086.851747971896</v>
+        <v>1041.573994277242</v>
       </c>
       <c r="Q45" t="n">
         <v>1131.338079926991</v>
@@ -7760,19 +7760,19 @@
         <v>1016.385824719912</v>
       </c>
       <c r="U45" t="n">
-        <v>1016.385824719912</v>
+        <v>806.393443223441</v>
       </c>
       <c r="V45" t="n">
-        <v>1016.385824719912</v>
+        <v>583.853441594508</v>
       </c>
       <c r="W45" t="n">
-        <v>1016.385824719912</v>
+        <v>353.7361957277949</v>
       </c>
       <c r="X45" t="n">
-        <v>1016.385824719912</v>
+        <v>353.7361957277949</v>
       </c>
       <c r="Y45" t="n">
-        <v>847.384061351071</v>
+        <v>353.7361957277949</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="C46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="D46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="E46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="F46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="G46" t="n">
         <v>276.0650612400862</v>
@@ -7809,22 +7809,22 @@
         <v>22.62676159853982</v>
       </c>
       <c r="K46" t="n">
-        <v>207.1416085247117</v>
+        <v>42.28653578203035</v>
       </c>
       <c r="L46" t="n">
-        <v>487.147783306642</v>
+        <v>86.88304661998518</v>
       </c>
       <c r="M46" t="n">
-        <v>536.2864350522623</v>
+        <v>366.8892214019154</v>
       </c>
       <c r="N46" t="n">
-        <v>589.3640713285249</v>
+        <v>646.8953961838457</v>
       </c>
       <c r="O46" t="n">
-        <v>827.1448955618623</v>
+        <v>926.901570965776</v>
       </c>
       <c r="P46" t="n">
-        <v>1053.910899881408</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="Q46" t="n">
         <v>1131.338079926991</v>
@@ -7833,25 +7833,25 @@
         <v>1131.338079926991</v>
       </c>
       <c r="S46" t="n">
-        <v>944.2366893780176</v>
+        <v>1131.338079926991</v>
       </c>
       <c r="T46" t="n">
-        <v>712.3704835745168</v>
+        <v>899.4718741234902</v>
       </c>
       <c r="U46" t="n">
-        <v>426.9808770848637</v>
+        <v>614.0822676338371</v>
       </c>
       <c r="V46" t="n">
-        <v>426.9808770848637</v>
+        <v>348.1029224546613</v>
       </c>
       <c r="W46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="X46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
       <c r="Y46" t="n">
-        <v>426.9808770848637</v>
+        <v>276.0650612400862</v>
       </c>
     </row>
   </sheetData>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>59.84024364032008</v>
+        <v>59.84024364032009</v>
       </c>
       <c r="K5" t="n">
-        <v>56.37184468858105</v>
+        <v>56.37184468858106</v>
       </c>
       <c r="L5" t="n">
         <v>45.70582857298459</v>
       </c>
       <c r="M5" t="n">
-        <v>30.06347586924085</v>
+        <v>30.06347586924086</v>
       </c>
       <c r="N5" t="n">
         <v>27.52066621168497</v>
@@ -8236,7 +8236,7 @@
         <v>52.30405746936195</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.90673990138413</v>
+        <v>70.90673990138414</v>
       </c>
       <c r="R5" t="n">
         <v>97.3227064959341</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5.934500038118173</v>
+        <v>5.934500038118188</v>
       </c>
       <c r="P6" t="n">
         <v>17.4563868068005</v>
@@ -8391,7 +8391,7 @@
         <v>46.78920077959938</v>
       </c>
       <c r="P7" t="n">
-        <v>52.55167994450285</v>
+        <v>52.55167994450286</v>
       </c>
       <c r="Q7" t="n">
         <v>72.88108513355061</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>15.11686125593893</v>
+        <v>15.11686125593896</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>187.4277382732061</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>187.4277382732056</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.57918763209696</v>
+        <v>28.57918763209699</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43224153943754</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>237.7875393373489</v>
       </c>
       <c r="M13" t="n">
-        <v>233.1995182184949</v>
+        <v>2.517108608302003</v>
       </c>
       <c r="N13" t="n">
-        <v>229.2207459653208</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>246.6503985988671</v>
       </c>
       <c r="P13" t="n">
-        <v>21.53491745575006</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.72574229597646</v>
+        <v>23.72574229597647</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.11686125593894</v>
+        <v>15.11686125593893</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>144.9931209996424</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9090,19 +9090,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>237.7875393373488</v>
+        <v>237.7875393373489</v>
       </c>
       <c r="M16" t="n">
-        <v>233.1995182184949</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>134.9180746048902</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>246.6503985988671</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3689549852624</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>144.9931209996427</v>
+        <v>187.4277382732059</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>28.57918763209696</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.4725364634484</v>
+        <v>19.43224153943754</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>237.787539337349</v>
+        <v>237.7875393373489</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>16.94689633689615</v>
       </c>
       <c r="N19" t="n">
-        <v>2.51710860830201</v>
+        <v>229.2207459653208</v>
       </c>
       <c r="O19" t="n">
-        <v>246.6503985988672</v>
+        <v>246.6503985988671</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>23.72574229597646</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>15.11686125593893</v>
+        <v>15.11686125593894</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>144.9931209996424</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>53.72944812541868</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>91.26367287422354</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>19.43224153943755</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>175.5462555527071</v>
+        <v>237.7875393373489</v>
       </c>
       <c r="M22" t="n">
-        <v>233.1995182184949</v>
+        <v>183.4671718345542</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>229.2207459653208</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>246.6503985988671</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>23.72574229597646</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>144.9931209996427</v>
+        <v>187.4277382732062</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>28.57918763209696</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>19.43224153943754</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>109.8459201800923</v>
       </c>
       <c r="L25" t="n">
-        <v>237.787539337349</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>233.199518218495</v>
       </c>
       <c r="N25" t="n">
-        <v>202.077679029971</v>
+        <v>229.2207459653209</v>
       </c>
       <c r="O25" t="n">
         <v>246.6503985988672</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.72574229597646</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>144.9931209996429</v>
+        <v>187.4277382732062</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>28.57918763209696</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.4725364634484</v>
+        <v>19.43224153943754</v>
       </c>
       <c r="K28" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>237.787539337349</v>
+        <v>210.6444724019991</v>
       </c>
       <c r="M28" t="n">
-        <v>170.9582344338536</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>229.2207459653209</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>246.6503985988672</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.9350150692923</v>
+        <v>23.72574229597646</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>187.4277382732062</v>
       </c>
       <c r="K30" t="n">
-        <v>20.84452337909137</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>166.5832148941146</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>19.43224153943754</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>155.0148980293972</v>
+        <v>188.0551929534081</v>
       </c>
       <c r="M31" t="n">
-        <v>233.1995182184949</v>
+        <v>233.199518218495</v>
       </c>
       <c r="N31" t="n">
-        <v>229.2207459653208</v>
+        <v>229.2207459653209</v>
       </c>
       <c r="O31" t="n">
-        <v>246.6503985988671</v>
+        <v>246.6503985988672</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>65.25436256858974</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>122.1733757046163</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>144.9931209996424</v>
       </c>
       <c r="R33" t="n">
-        <v>28.57918763209696</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>237.7875393373489</v>
+        <v>188.0551929534081</v>
       </c>
       <c r="M34" t="n">
-        <v>183.4671718345541</v>
+        <v>233.1995182184949</v>
       </c>
       <c r="N34" t="n">
         <v>229.2207459653208</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>187.4277382732064</v>
+        <v>144.9931209996429</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>28.57918763209696</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>221.6941407502342</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>233.199518218495</v>
       </c>
       <c r="N37" t="n">
         <v>229.2207459653209</v>
       </c>
       <c r="O37" t="n">
-        <v>246.6503985988672</v>
+        <v>24.53478236070247</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
         <v>23.72574229597646</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>91.26367287422377</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>53.7294481254194</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>144.9931209996424</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.43224153943754</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>195.1356700963465</v>
+        <v>76.80562525608138</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>233.1995182184949</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>229.2207459653208</v>
       </c>
       <c r="O40" t="n">
-        <v>246.6503985988673</v>
+        <v>246.6503985988671</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>187.4277382732062</v>
       </c>
       <c r="K42" t="n">
-        <v>144.9931209996425</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>28.57918763209696</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>19.43224153943754</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>237.787539337349</v>
       </c>
       <c r="M43" t="n">
-        <v>16.94689633689615</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>229.2207459653208</v>
+        <v>229.2207459653209</v>
       </c>
       <c r="O43" t="n">
-        <v>246.6503985988671</v>
+        <v>246.6503985988672</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>183.4671718345541</v>
       </c>
       <c r="Q43" t="n">
         <v>23.72574229597646</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>187.4277382732059</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>141.6926335311312</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>45.73510474207465</v>
       </c>
       <c r="R45" t="n">
         <v>28.57918763209696</v>
@@ -11457,25 +11457,25 @@
         <v>19.43224153943754</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>237.787539337349</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>233.1995182184949</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>229.2207459653208</v>
       </c>
       <c r="O46" t="n">
-        <v>203.9985293578642</v>
+        <v>246.6503985988671</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>188.055192953408</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>23.72574229597646</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>8.349649946278419</v>
+        <v>8.349649946278443</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>113.6552782725352</v>
       </c>
       <c r="C11" t="n">
         <v>106.409226500351</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>115.7231696528732</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>129.8909741035743</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>407.0409783009638</v>
       </c>
       <c r="H11" t="n">
-        <v>263.8936708630497</v>
+        <v>300.4605997655549</v>
       </c>
       <c r="I11" t="n">
-        <v>60.22850112887267</v>
+        <v>60.22850112887268</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>253.0359902972743</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>55.85122122176909</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>355.9588730860997</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>77.13048470095013</v>
+        <v>77.13048470095015</v>
       </c>
       <c r="I12" t="n">
-        <v>12.2316799743332</v>
+        <v>12.23167997433321</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>113.8027326550078</v>
+        <v>113.8027326550079</v>
       </c>
       <c r="T12" t="n">
         <v>170.9219859563939</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>43.20845900185873</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.06737407226062</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.917177886131</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.52237374770323</v>
+        <v>82.52237374770324</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2303766434837</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.5475437454657</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5357104247566</v>
@@ -23478,13 +23478,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>246.6755153139501</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.8523387556032</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>352.6768175795934</v>
       </c>
       <c r="D14" t="n">
-        <v>98.75219751375124</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>115.7231696528732</v>
+        <v>115.7231696528731</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23512,10 +23512,10 @@
         <v>407.0409783009638</v>
       </c>
       <c r="H14" t="n">
-        <v>17.6260797838072</v>
+        <v>300.4605997655549</v>
       </c>
       <c r="I14" t="n">
-        <v>23.66157222636749</v>
+        <v>60.22850112887267</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>253.0359902972743</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>55.85122122176904</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>84.45452469964766</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>77.13048470095013</v>
       </c>
       <c r="I15" t="n">
-        <v>12.23167997433321</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5.048235839449514</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.9219859563939</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>100.5975509491825</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6501989233353</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>282.5357104247566</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>112.1714636472517</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>237.0685075941278</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>106.4092265003509</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>273.0504305541833</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>124.206458319216</v>
+        <v>407.0409783009638</v>
       </c>
       <c r="H17" t="n">
-        <v>17.62607978380711</v>
+        <v>300.4605997655549</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>60.22850112887267</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.5537162974182</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0359902972743</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>102.723559034526</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,22 +23813,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.13048470095013</v>
       </c>
       <c r="I18" t="n">
         <v>12.2316799743332</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>113.8027326550078</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>13.55062762915338</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>38.04852667733837</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>66.43104023694363</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>128.4829116531008</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I19" t="n">
         <v>104.917177886131</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.5475437454657</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5357104247566</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.3691530543595</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23980,16 +23980,16 @@
         <v>115.7231696528732</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>129.8909741035743</v>
       </c>
       <c r="G20" t="n">
         <v>407.0409783009638</v>
       </c>
       <c r="H20" t="n">
-        <v>17.62607978380722</v>
+        <v>17.6260797838072</v>
       </c>
       <c r="I20" t="n">
-        <v>60.22850112887267</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4978842242417</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.5537162974182</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>102.723559034526</v>
+        <v>316.1638191694648</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.794395807957</v>
       </c>
       <c r="H21" t="n">
-        <v>77.13048470095013</v>
+        <v>77.13048470095015</v>
       </c>
       <c r="I21" t="n">
-        <v>12.2316799743332</v>
+        <v>12.23167997433321</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>113.8027326550078</v>
+        <v>112.1783224742334</v>
       </c>
       <c r="T21" t="n">
-        <v>107.4974157196374</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>207.8924576815066</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>3.672134235799376</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.917177886131</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>185.2303766434837</v>
       </c>
       <c r="T22" t="n">
-        <v>229.5475437454657</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5357104247566</v>
+        <v>29.63760601149886</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>106.4092265003509</v>
       </c>
       <c r="D23" t="n">
-        <v>132.4660722955755</v>
+        <v>98.75219751375113</v>
       </c>
       <c r="E23" t="n">
         <v>115.7231696528731</v>
       </c>
       <c r="F23" t="n">
-        <v>129.8909741035742</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>407.0409783009638</v>
@@ -24262,7 +24262,7 @@
         <v>212.5537162974182</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0359902972743</v>
+        <v>3.915345097350865</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24287,25 +24287,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>76.15698296945766</v>
       </c>
       <c r="G24" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12.2316799743332</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>170.9219859563939</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>193.695290101152</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.1178184654335</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>92.09573132812778</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.655278272535</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,16 +24451,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>115.723169652873</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>129.8909741035741</v>
+        <v>129.8909741035742</v>
       </c>
       <c r="G26" t="n">
         <v>407.0409783009638</v>
       </c>
       <c r="H26" t="n">
-        <v>51.33995456563125</v>
+        <v>300.4605997655549</v>
       </c>
       <c r="I26" t="n">
         <v>60.22850112887267</v>
@@ -24496,13 +24496,13 @@
         <v>119.4978842242417</v>
       </c>
       <c r="T26" t="n">
-        <v>212.5537162974182</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0359902972743</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>55.85122122176898</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>326.1603434016262</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.445466805182264</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>73.61238028231739</v>
       </c>
     </row>
     <row r="28">
@@ -24609,13 +24609,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.9867387589999</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>185.2303766434837</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>40.79807254827652</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>191.4185075959621</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24685,19 +24685,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>98.75219751375113</v>
       </c>
       <c r="E29" t="n">
-        <v>115.7231696528731</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>129.8909741035743</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>370.4740493984585</v>
+        <v>407.0409783009638</v>
       </c>
       <c r="H29" t="n">
-        <v>300.4605997655549</v>
+        <v>170.8378387898731</v>
       </c>
       <c r="I29" t="n">
         <v>60.22850112887267</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.4978842242417</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.5537162974182</v>
       </c>
       <c r="U29" t="n">
         <v>253.0359902972743</v>
@@ -24742,13 +24742,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>84.45452469964766</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>102.7235590345259</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>109.6912820068571</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>64.80100302239364</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.794395807957</v>
+        <v>62.23616938999471</v>
       </c>
       <c r="H30" t="n">
         <v>77.13048470095013</v>
       </c>
       <c r="I30" t="n">
-        <v>12.2316799743332</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>113.8027326550078</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -24843,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24855,7 +24855,7 @@
         <v>165.6788007392551</v>
       </c>
       <c r="H31" t="n">
-        <v>145.9867387589999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.917177886131</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.99004779765805</v>
+        <v>82.52237374770323</v>
       </c>
       <c r="S31" t="n">
-        <v>185.2303766434837</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.5475437454657</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>131.4924653888963</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24925,10 +24925,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>115.7231696528731</v>
+        <v>198.6541249746096</v>
       </c>
       <c r="F32" t="n">
-        <v>133.8063192009252</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>124.206458319216</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.4978842242417</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.5537162974182</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0359902972743</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>55.85122122176904</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>128.4892812745401</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
@@ -25010,13 +25010,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>117.794395807957</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.13048470095013</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.2316799743332</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>113.8027326550078</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>35.51122559616188</v>
+        <v>170.9219859563939</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6788007392551</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>145.9867387589999</v>
@@ -25128,19 +25128,19 @@
         <v>185.2303766434837</v>
       </c>
       <c r="T34" t="n">
-        <v>190.0152177954205</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>14.71172977895543</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25156,16 +25156,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>106.4092265003508</v>
       </c>
       <c r="D35" t="n">
-        <v>98.75219751375107</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>115.723169652873</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>129.8909741035741</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>407.0409783009638</v>
@@ -25174,7 +25174,7 @@
         <v>300.4605997655549</v>
       </c>
       <c r="I35" t="n">
-        <v>60.22850112887267</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.93095532173655</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>253.0359902972743</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>55.85122122176892</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>245.883015485135</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>128.6703433913271</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>89.7770968197454</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.13048470095013</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>113.8027326550078</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.9219859563939</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.917177886131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.52237374770323</v>
       </c>
       <c r="S37" t="n">
         <v>185.2303766434837</v>
       </c>
       <c r="T37" t="n">
-        <v>50.10065689892872</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5357104247566</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>190.0152177954201</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>113.655278272535</v>
+        <v>147.3691530543594</v>
       </c>
       <c r="C38" t="n">
-        <v>106.4092265003508</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>115.723169652873</v>
+        <v>115.7231696528731</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>129.8909741035743</v>
       </c>
       <c r="G38" t="n">
-        <v>407.0409783009638</v>
+        <v>124.206458319216</v>
       </c>
       <c r="H38" t="n">
         <v>300.4605997655549</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>60.22850112887267</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>203.6336579175542</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.794395807957</v>
       </c>
       <c r="H39" t="n">
         <v>77.13048470095013</v>
       </c>
       <c r="I39" t="n">
-        <v>2.767023434534629</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.8027326550078</v>
+        <v>55.97875206728605</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.9219859563939</v>
       </c>
       <c r="U39" t="n">
         <v>207.8924576815066</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>38.12819403083984</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>165.6788007392551</v>
       </c>
       <c r="H40" t="n">
-        <v>145.9867387589999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>104.917177886131</v>
@@ -25599,7 +25599,7 @@
         <v>82.52237374770323</v>
       </c>
       <c r="S40" t="n">
-        <v>185.2303766434837</v>
+        <v>17.50665930173088</v>
       </c>
       <c r="T40" t="n">
         <v>229.5475437454657</v>
@@ -25611,7 +25611,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.6552782725352</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>98.75219751375118</v>
+        <v>98.75219751375113</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>129.8909741035742</v>
       </c>
       <c r="G41" t="n">
-        <v>407.0409783009638</v>
+        <v>124.206458319216</v>
       </c>
       <c r="H41" t="n">
         <v>300.4605997655549</v>
@@ -25687,16 +25687,16 @@
         <v>253.0359902972743</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>89.56509600359331</v>
       </c>
       <c r="W41" t="n">
-        <v>118.1683994814719</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.6912820068571</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25760,10 +25760,10 @@
         <v>113.8027326550078</v>
       </c>
       <c r="T42" t="n">
-        <v>51.81694636713318</v>
+        <v>143.3505479176868</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8924576815066</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.5145485696995</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.9867387589999</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.52237374770323</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.2303766434837</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.5475437454657</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5357104247566</v>
+        <v>229.1164199160447</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25867,7 +25867,7 @@
         <v>113.6552782725352</v>
       </c>
       <c r="C44" t="n">
-        <v>106.4092265003509</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25879,10 +25879,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0409783009638</v>
+        <v>124.206458319216</v>
       </c>
       <c r="H44" t="n">
-        <v>17.62607978380717</v>
+        <v>300.4605997655549</v>
       </c>
       <c r="I44" t="n">
         <v>60.22850112887267</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.4978842242417</v>
       </c>
       <c r="T44" t="n">
-        <v>212.5537162974182</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0359902972743</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>272.3202826165382</v>
       </c>
       <c r="W44" t="n">
-        <v>237.6662837057137</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>17.40491181749633</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>77.13048470095013</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.2316799743332</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>170.9219859563939</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8924576815066</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.20932902009491</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>16.27214305292546</v>
+        <v>165.6788007392551</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>82.52237374770323</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.2303766434837</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>209.1796154457048</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359612.7551627734</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359612.7551627733</v>
+        <v>359612.7551627734</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>359612.7551627733</v>
+        <v>359612.7551627735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359612.7551627734</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>359612.7551627735</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359612.7551627733</v>
+        <v>359612.7551627734</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359612.7551627734</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359612.7551627735</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359612.7551627733</v>
+        <v>359612.7551627734</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359612.7551627734</v>
+        <v>359612.7551627733</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521743.1466424288</v>
+        <v>521743.1466424286</v>
       </c>
       <c r="C2" t="n">
-        <v>521747.0699086708</v>
+        <v>521747.0699086706</v>
       </c>
       <c r="D2" t="n">
-        <v>521749.7602182721</v>
+        <v>521749.7602182722</v>
       </c>
       <c r="E2" t="n">
         <v>241289.5800452215</v>
       </c>
       <c r="F2" t="n">
-        <v>241289.5800452216</v>
+        <v>241289.5800452215</v>
       </c>
       <c r="G2" t="n">
         <v>241289.5800452215</v>
@@ -26337,25 +26337,25 @@
         <v>241289.5800452215</v>
       </c>
       <c r="J2" t="n">
-        <v>241289.5800452217</v>
+        <v>241289.5800452216</v>
       </c>
       <c r="K2" t="n">
+        <v>241289.5800452216</v>
+      </c>
+      <c r="L2" t="n">
         <v>241289.5800452215</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>241289.5800452216</v>
       </c>
-      <c r="M2" t="n">
-        <v>241289.5800452217</v>
-      </c>
       <c r="N2" t="n">
-        <v>241289.5800452216</v>
+        <v>241289.5800452215</v>
       </c>
       <c r="O2" t="n">
         <v>241289.5800452215</v>
       </c>
       <c r="P2" t="n">
-        <v>241289.5800452215</v>
+        <v>241289.5800452216</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>9931.11554663598</v>
       </c>
       <c r="E3" t="n">
-        <v>336665.2169660428</v>
+        <v>336665.2169660426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>70483.49371753147</v>
+        <v>70483.49371753143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>356144.3947307461</v>
       </c>
       <c r="C4" t="n">
-        <v>350669.8966780524</v>
+        <v>350669.8966780525</v>
       </c>
       <c r="D4" t="n">
-        <v>347063.6863994416</v>
+        <v>347063.6863994415</v>
       </c>
       <c r="E4" t="n">
-        <v>18724.47134344765</v>
+        <v>18724.47134344766</v>
       </c>
       <c r="F4" t="n">
         <v>18724.47134344766</v>
       </c>
       <c r="G4" t="n">
-        <v>18724.47134344767</v>
+        <v>18724.47134344766</v>
       </c>
       <c r="H4" t="n">
-        <v>18724.47134344765</v>
+        <v>18724.47134344766</v>
       </c>
       <c r="I4" t="n">
         <v>18724.47134344767</v>
       </c>
       <c r="J4" t="n">
-        <v>18724.47134344768</v>
+        <v>18724.47134344767</v>
       </c>
       <c r="K4" t="n">
-        <v>18724.47134344766</v>
+        <v>18724.47134344767</v>
       </c>
       <c r="L4" t="n">
         <v>18724.47134344766</v>
       </c>
       <c r="M4" t="n">
-        <v>18724.47134344767</v>
+        <v>18724.47134344768</v>
       </c>
       <c r="N4" t="n">
-        <v>18724.47134344769</v>
+        <v>18724.47134344766</v>
       </c>
       <c r="O4" t="n">
         <v>18724.47134344767</v>
@@ -26493,7 +26493,7 @@
         <v>27988.42286149265</v>
       </c>
       <c r="J5" t="n">
-        <v>27988.42286149266</v>
+        <v>27988.42286149265</v>
       </c>
       <c r="K5" t="n">
         <v>27988.42286149265</v>
@@ -26505,7 +26505,7 @@
         <v>27988.42286149266</v>
       </c>
       <c r="N5" t="n">
-        <v>27988.42286149266</v>
+        <v>27988.42286149265</v>
       </c>
       <c r="O5" t="n">
         <v>27988.42286149265</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18409.79419972004</v>
+        <v>-18414.00168188685</v>
       </c>
       <c r="C6" t="n">
-        <v>118355.2345266176</v>
+        <v>118351.0405729551</v>
       </c>
       <c r="D6" t="n">
-        <v>127179.077057004</v>
+        <v>127174.8923802714</v>
       </c>
       <c r="E6" t="n">
-        <v>-142088.5311257615</v>
+        <v>-143059.8198720563</v>
       </c>
       <c r="F6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939864</v>
       </c>
       <c r="G6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939862</v>
       </c>
       <c r="H6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939863</v>
       </c>
       <c r="I6" t="n">
-        <v>194576.6858402811</v>
+        <v>193605.3970939863</v>
       </c>
       <c r="J6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939864</v>
       </c>
       <c r="K6" t="n">
-        <v>194576.6858402812</v>
+        <v>193605.3970939864</v>
       </c>
       <c r="L6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939863</v>
       </c>
       <c r="M6" t="n">
-        <v>124093.1921227499</v>
+        <v>123121.9033764549</v>
       </c>
       <c r="N6" t="n">
-        <v>194576.6858402813</v>
+        <v>193605.3970939863</v>
       </c>
       <c r="O6" t="n">
-        <v>194576.6858402812</v>
+        <v>193605.3970939863</v>
       </c>
       <c r="P6" t="n">
-        <v>194576.6858402812</v>
+        <v>193605.3970939864</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>181.113817210578</v>
       </c>
       <c r="E3" t="n">
+        <v>495.0497269083664</v>
+      </c>
+      <c r="F3" t="n">
         <v>495.0497269083665</v>
-      </c>
-      <c r="F3" t="n">
-        <v>495.0497269083664</v>
       </c>
       <c r="G3" t="n">
         <v>495.0497269083665</v>
       </c>
       <c r="H3" t="n">
-        <v>495.0497269083665</v>
+        <v>495.0497269083664</v>
       </c>
       <c r="I3" t="n">
         <v>495.0497269083665</v>
@@ -26804,7 +26804,7 @@
         <v>282.8345199817477</v>
       </c>
       <c r="G4" t="n">
-        <v>282.8345199817478</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="H4" t="n">
         <v>282.8345199817477</v>
@@ -26813,10 +26813,10 @@
         <v>282.8345199817478</v>
       </c>
       <c r="J4" t="n">
-        <v>282.8345199817479</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="K4" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="L4" t="n">
         <v>282.8345199817477</v>
@@ -26825,10 +26825,10 @@
         <v>282.8345199817479</v>
       </c>
       <c r="N4" t="n">
-        <v>282.8345199817479</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="O4" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="P4" t="n">
         <v>282.8345199817477</v>
@@ -26968,7 +26968,7 @@
         <v>11.59616207422576</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9359096977886</v>
+        <v>313.9359096977885</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817476</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,16 +31281,16 @@
         <v>0.6814780105984001</v>
       </c>
       <c r="H5" t="n">
-        <v>6.979186676040867</v>
+        <v>6.979186676040866</v>
       </c>
       <c r="I5" t="n">
-        <v>26.27268100359485</v>
+        <v>26.27268100359484</v>
       </c>
       <c r="J5" t="n">
         <v>57.83959430202601</v>
       </c>
       <c r="K5" t="n">
-        <v>86.68655849065631</v>
+        <v>86.6865584906563</v>
       </c>
       <c r="L5" t="n">
         <v>107.5423411575071</v>
@@ -31308,7 +31308,7 @@
         <v>97.99738977156325</v>
       </c>
       <c r="Q5" t="n">
-        <v>73.59195851700804</v>
+        <v>73.59195851700802</v>
       </c>
       <c r="R5" t="n">
         <v>42.80789308325178</v>
@@ -31381,7 +31381,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>86.75305885077071</v>
+        <v>86.7530588507707</v>
       </c>
       <c r="P6" t="n">
         <v>69.62697801251416</v>
@@ -31393,10 +31393,10 @@
         <v>22.63860307651134</v>
       </c>
       <c r="S6" t="n">
-        <v>6.772710089645764</v>
+        <v>6.772710089645763</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46968608556894</v>
+        <v>1.469686085568939</v>
       </c>
       <c r="U6" t="n">
         <v>0.0239883474249555</v>
@@ -31460,7 +31460,7 @@
         <v>46.77853588377405</v>
       </c>
       <c r="O7" t="n">
-        <v>43.20754921409843</v>
+        <v>43.20754921409842</v>
       </c>
       <c r="P7" t="n">
         <v>36.97152268744308</v>
@@ -31469,7 +31469,7 @@
         <v>25.59716592558917</v>
       </c>
       <c r="R7" t="n">
-        <v>13.7448249558098</v>
+        <v>13.74482495580979</v>
       </c>
       <c r="S7" t="n">
         <v>5.327300736006343</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99014965591303</v>
+        <v>1.990149655913029</v>
       </c>
       <c r="H11" t="n">
-        <v>20.38162016361932</v>
+        <v>20.38162016361931</v>
       </c>
       <c r="I11" t="n">
-        <v>76.72524460958715</v>
+        <v>76.72524460958714</v>
       </c>
       <c r="J11" t="n">
         <v>168.9114643585486</v>
@@ -31767,10 +31767,10 @@
         <v>253.1544992933472</v>
       </c>
       <c r="L11" t="n">
-        <v>314.0605418254957</v>
+        <v>314.0605418254956</v>
       </c>
       <c r="M11" t="n">
-        <v>349.452865768839</v>
+        <v>349.4528657688389</v>
       </c>
       <c r="N11" t="n">
         <v>355.1073784787019</v>
@@ -31779,19 +31779,19 @@
         <v>335.3178278377167</v>
       </c>
       <c r="P11" t="n">
-        <v>286.1860082073638</v>
+        <v>286.1860082073637</v>
       </c>
       <c r="Q11" t="n">
         <v>214.9137736549783</v>
       </c>
       <c r="R11" t="n">
-        <v>125.013738323247</v>
+        <v>125.0137383232469</v>
       </c>
       <c r="S11" t="n">
-        <v>45.35053528411821</v>
+        <v>45.35053528411819</v>
       </c>
       <c r="T11" t="n">
-        <v>8.711880118759291</v>
+        <v>8.711880118759289</v>
       </c>
       <c r="U11" t="n">
         <v>0.1592119724730423</v>
@@ -31834,10 +31834,10 @@
         <v>1.064823940897241</v>
       </c>
       <c r="H12" t="n">
-        <v>10.28395753445494</v>
+        <v>10.28395753445493</v>
       </c>
       <c r="I12" t="n">
-        <v>36.66170147387432</v>
+        <v>36.66170147387431</v>
       </c>
       <c r="J12" t="n">
         <v>100.6025110125766</v>
@@ -31846,34 +31846,34 @@
         <v>171.9457150526918</v>
       </c>
       <c r="L12" t="n">
-        <v>231.2022333075348</v>
+        <v>231.2022333075347</v>
       </c>
       <c r="M12" t="n">
-        <v>269.8021011650597</v>
+        <v>269.8021011650596</v>
       </c>
       <c r="N12" t="n">
-        <v>276.9429599616908</v>
+        <v>276.9429599616907</v>
       </c>
       <c r="O12" t="n">
-        <v>253.3487031660204</v>
+        <v>253.3487031660203</v>
       </c>
       <c r="P12" t="n">
-        <v>203.3346699069478</v>
+        <v>203.3346699069477</v>
       </c>
       <c r="Q12" t="n">
         <v>135.9238419994443</v>
       </c>
       <c r="R12" t="n">
-        <v>66.11248994447962</v>
+        <v>66.11248994447959</v>
       </c>
       <c r="S12" t="n">
-        <v>19.77863767412199</v>
+        <v>19.77863767412198</v>
       </c>
       <c r="T12" t="n">
-        <v>4.291987726686686</v>
+        <v>4.291987726686685</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07005420663797642</v>
+        <v>0.0700542066379764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8927126222937756</v>
+        <v>0.8927126222937753</v>
       </c>
       <c r="H13" t="n">
-        <v>7.937026769121029</v>
+        <v>7.937026769121027</v>
       </c>
       <c r="I13" t="n">
         <v>26.84630322316191</v>
       </c>
       <c r="J13" t="n">
-        <v>63.11478239616993</v>
+        <v>63.11478239616991</v>
       </c>
       <c r="K13" t="n">
         <v>103.7169755719495</v>
@@ -31940,10 +31940,10 @@
         <v>107.9695338817853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.75250876316333</v>
+        <v>74.75250876316332</v>
       </c>
       <c r="R13" t="n">
-        <v>40.13960572604557</v>
+        <v>40.13960572604556</v>
       </c>
       <c r="S13" t="n">
         <v>15.55754633579243</v>
@@ -31952,7 +31952,7 @@
         <v>3.814317567982494</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04869341576147872</v>
+        <v>0.04869341576147871</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.990149655913029</v>
+        <v>1.99014965591303</v>
       </c>
       <c r="H14" t="n">
         <v>20.38162016361932</v>
       </c>
       <c r="I14" t="n">
-        <v>76.72524460958714</v>
+        <v>76.72524460958715</v>
       </c>
       <c r="J14" t="n">
         <v>168.9114643585486</v>
@@ -32004,7 +32004,7 @@
         <v>253.1544992933472</v>
       </c>
       <c r="L14" t="n">
-        <v>314.0605418254956</v>
+        <v>314.0605418254957</v>
       </c>
       <c r="M14" t="n">
         <v>349.452865768839</v>
@@ -32016,16 +32016,16 @@
         <v>335.3178278377167</v>
       </c>
       <c r="P14" t="n">
-        <v>286.1860082073637</v>
+        <v>286.1860082073638</v>
       </c>
       <c r="Q14" t="n">
         <v>214.9137736549783</v>
       </c>
       <c r="R14" t="n">
-        <v>125.0137383232469</v>
+        <v>125.013738323247</v>
       </c>
       <c r="S14" t="n">
-        <v>45.3505352841182</v>
+        <v>45.35053528411821</v>
       </c>
       <c r="T14" t="n">
         <v>8.711880118759291</v>
@@ -32071,10 +32071,10 @@
         <v>1.064823940897241</v>
       </c>
       <c r="H15" t="n">
-        <v>10.28395753445493</v>
+        <v>10.28395753445494</v>
       </c>
       <c r="I15" t="n">
-        <v>36.66170147387431</v>
+        <v>36.66170147387432</v>
       </c>
       <c r="J15" t="n">
         <v>100.6025110125766</v>
@@ -32092,22 +32092,22 @@
         <v>276.9429599616908</v>
       </c>
       <c r="O15" t="n">
-        <v>253.3487031660203</v>
+        <v>253.3487031660204</v>
       </c>
       <c r="P15" t="n">
-        <v>203.3346699069477</v>
+        <v>203.3346699069478</v>
       </c>
       <c r="Q15" t="n">
         <v>135.9238419994443</v>
       </c>
       <c r="R15" t="n">
-        <v>66.11248994447961</v>
+        <v>66.11248994447962</v>
       </c>
       <c r="S15" t="n">
-        <v>19.77863767412198</v>
+        <v>19.77863767412199</v>
       </c>
       <c r="T15" t="n">
-        <v>4.291987726686685</v>
+        <v>4.291987726686686</v>
       </c>
       <c r="U15" t="n">
         <v>0.07005420663797642</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8927126222937755</v>
+        <v>0.8927126222937756</v>
       </c>
       <c r="H16" t="n">
-        <v>7.937026769121028</v>
+        <v>7.937026769121029</v>
       </c>
       <c r="I16" t="n">
         <v>26.84630322316191</v>
       </c>
       <c r="J16" t="n">
-        <v>63.11478239616992</v>
+        <v>63.11478239616993</v>
       </c>
       <c r="K16" t="n">
         <v>103.7169755719495</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99014965591303</v>
+        <v>1.990149655913029</v>
       </c>
       <c r="H20" t="n">
         <v>20.38162016361932</v>
       </c>
       <c r="I20" t="n">
-        <v>76.72524460958715</v>
+        <v>76.72524460958714</v>
       </c>
       <c r="J20" t="n">
         <v>168.9114643585486</v>
@@ -32478,7 +32478,7 @@
         <v>253.1544992933472</v>
       </c>
       <c r="L20" t="n">
-        <v>314.0605418254957</v>
+        <v>314.0605418254956</v>
       </c>
       <c r="M20" t="n">
         <v>349.452865768839</v>
@@ -32490,16 +32490,16 @@
         <v>335.3178278377167</v>
       </c>
       <c r="P20" t="n">
-        <v>286.1860082073638</v>
+        <v>286.1860082073637</v>
       </c>
       <c r="Q20" t="n">
         <v>214.9137736549783</v>
       </c>
       <c r="R20" t="n">
-        <v>125.013738323247</v>
+        <v>125.0137383232469</v>
       </c>
       <c r="S20" t="n">
-        <v>45.35053528411821</v>
+        <v>45.3505352841182</v>
       </c>
       <c r="T20" t="n">
         <v>8.711880118759291</v>
@@ -32545,10 +32545,10 @@
         <v>1.064823940897241</v>
       </c>
       <c r="H21" t="n">
-        <v>10.28395753445494</v>
+        <v>10.28395753445493</v>
       </c>
       <c r="I21" t="n">
-        <v>36.66170147387432</v>
+        <v>36.66170147387431</v>
       </c>
       <c r="J21" t="n">
         <v>100.6025110125766</v>
@@ -32566,22 +32566,22 @@
         <v>276.9429599616908</v>
       </c>
       <c r="O21" t="n">
-        <v>253.3487031660204</v>
+        <v>253.3487031660203</v>
       </c>
       <c r="P21" t="n">
-        <v>203.3346699069478</v>
+        <v>203.3346699069477</v>
       </c>
       <c r="Q21" t="n">
         <v>135.9238419994443</v>
       </c>
       <c r="R21" t="n">
-        <v>66.11248994447962</v>
+        <v>66.11248994447961</v>
       </c>
       <c r="S21" t="n">
-        <v>19.77863767412199</v>
+        <v>19.77863767412198</v>
       </c>
       <c r="T21" t="n">
-        <v>4.291987726686686</v>
+        <v>4.291987726686685</v>
       </c>
       <c r="U21" t="n">
         <v>0.07005420663797642</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8927126222937756</v>
+        <v>0.8927126222937755</v>
       </c>
       <c r="H22" t="n">
-        <v>7.937026769121029</v>
+        <v>7.937026769121028</v>
       </c>
       <c r="I22" t="n">
         <v>26.84630322316191</v>
       </c>
       <c r="J22" t="n">
-        <v>63.11478239616993</v>
+        <v>63.11478239616992</v>
       </c>
       <c r="K22" t="n">
         <v>103.7169755719495</v>
@@ -34368,7 +34368,7 @@
         <v>76.72524460958715</v>
       </c>
       <c r="J44" t="n">
-        <v>168.9114643585488</v>
+        <v>168.9114643585486</v>
       </c>
       <c r="K44" t="n">
         <v>253.1544992933472</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.23162641620254</v>
+        <v>51.23162641620252</v>
       </c>
       <c r="K11" t="n">
-        <v>110.0960961141099</v>
+        <v>110.0960961141098</v>
       </c>
       <c r="L11" t="n">
         <v>160.812372095004</v>
@@ -35421,16 +35421,16 @@
         <v>199.7278141711117</v>
       </c>
       <c r="N11" t="n">
-        <v>205.9888871409179</v>
+        <v>205.9888871409178</v>
       </c>
       <c r="O11" t="n">
         <v>185.7539904136203</v>
       </c>
       <c r="P11" t="n">
-        <v>135.8845609664386</v>
+        <v>135.8845609664385</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.41507523658615</v>
+        <v>70.41507523658612</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.1580536792433</v>
+        <v>205.5857919524494</v>
       </c>
       <c r="K12" t="n">
-        <v>82.34877971935846</v>
+        <v>82.3487797193584</v>
       </c>
       <c r="L12" t="n">
         <v>141.1418864506165</v>
       </c>
       <c r="M12" t="n">
-        <v>177.4149791157478</v>
+        <v>177.4149791157477</v>
       </c>
       <c r="N12" t="n">
         <v>191.5708471075241</v>
       </c>
       <c r="O12" t="n">
-        <v>160.6611442771315</v>
+        <v>160.6611442771314</v>
       </c>
       <c r="P12" t="n">
         <v>116.2513050876331</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.363427116736</v>
+        <v>44.93568884353031</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.04029492401084</v>
       </c>
       <c r="K13" t="n">
         <v>186.3786332587595</v>
       </c>
       <c r="L13" t="n">
-        <v>45.04698064439881</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="M13" t="n">
-        <v>282.8345199817477</v>
+        <v>52.15211037155479</v>
       </c>
       <c r="N13" t="n">
-        <v>282.8345199817477</v>
+        <v>53.6137740164269</v>
       </c>
       <c r="O13" t="n">
         <v>282.8345199817477</v>
       </c>
       <c r="P13" t="n">
-        <v>39.98124870558945</v>
+        <v>229.0565700197434</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>199.7278141711117</v>
       </c>
       <c r="N14" t="n">
-        <v>205.9888871409178</v>
+        <v>205.9888871409179</v>
       </c>
       <c r="O14" t="n">
         <v>185.7539904136203</v>
       </c>
       <c r="P14" t="n">
-        <v>135.8845609664385</v>
+        <v>135.8845609664386</v>
       </c>
       <c r="Q14" t="n">
         <v>70.41507523658615</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>163.1511746788857</v>
+        <v>18.1580536792433</v>
       </c>
       <c r="K15" t="n">
-        <v>82.34877971935843</v>
+        <v>82.34877971935846</v>
       </c>
       <c r="L15" t="n">
         <v>141.1418864506165</v>
@@ -35740,16 +35740,16 @@
         <v>191.5708471075241</v>
       </c>
       <c r="O15" t="n">
-        <v>160.6611442771314</v>
+        <v>160.6611442771315</v>
       </c>
       <c r="P15" t="n">
         <v>116.2513050876331</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.93568884353034</v>
+        <v>189.9288098431728</v>
       </c>
       <c r="R15" t="n">
-        <v>42.4346172735635</v>
+        <v>42.43461727356352</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.04029492401085</v>
+        <v>33.04029492401086</v>
       </c>
       <c r="K16" t="n">
         <v>186.3786332587595</v>
@@ -35813,16 +35813,16 @@
         <v>282.8345199817477</v>
       </c>
       <c r="M16" t="n">
+        <v>49.63500176325282</v>
+      </c>
+      <c r="N16" t="n">
+        <v>188.5318486213171</v>
+      </c>
+      <c r="O16" t="n">
         <v>282.8345199817477</v>
       </c>
-      <c r="N16" t="n">
-        <v>53.6137740164269</v>
-      </c>
-      <c r="O16" t="n">
-        <v>36.18412138288062</v>
-      </c>
       <c r="P16" t="n">
-        <v>166.8152862351018</v>
+        <v>18.44633124983939</v>
       </c>
       <c r="Q16" t="n">
         <v>78.20927277331582</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>163.151174678886</v>
+        <v>205.5857919524492</v>
       </c>
       <c r="K18" t="n">
         <v>82.34877971935846</v>
@@ -35986,7 +35986,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R18" t="n">
-        <v>42.43461727356352</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.04029492401086</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>186.3786332587595</v>
       </c>
       <c r="L19" t="n">
-        <v>282.8345199817478</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="M19" t="n">
-        <v>49.63500176325282</v>
+        <v>66.58189810014896</v>
       </c>
       <c r="N19" t="n">
-        <v>56.13088262472895</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="O19" t="n">
-        <v>282.8345199817478</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="P19" t="n">
-        <v>229.0565700197435</v>
+        <v>18.44633124983939</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>199.7278141711117</v>
       </c>
       <c r="N20" t="n">
-        <v>205.9888871409179</v>
+        <v>205.9888871409178</v>
       </c>
       <c r="O20" t="n">
         <v>185.7539904136203</v>
       </c>
       <c r="P20" t="n">
-        <v>135.8845609664386</v>
+        <v>135.8845609664385</v>
       </c>
       <c r="Q20" t="n">
         <v>70.41507523658615</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.1580536792433</v>
+        <v>163.1511746788857</v>
       </c>
       <c r="K21" t="n">
-        <v>82.34877971935846</v>
+        <v>82.34877971935843</v>
       </c>
       <c r="L21" t="n">
         <v>141.1418864506165</v>
       </c>
       <c r="M21" t="n">
-        <v>231.1444272411665</v>
+        <v>177.4149791157478</v>
       </c>
       <c r="N21" t="n">
-        <v>282.8345199817477</v>
+        <v>191.5708471075241</v>
       </c>
       <c r="O21" t="n">
-        <v>160.6611442771315</v>
+        <v>160.6611442771314</v>
       </c>
       <c r="P21" t="n">
         <v>116.2513050876331</v>
@@ -36223,7 +36223,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R21" t="n">
-        <v>42.43461727356352</v>
+        <v>42.4346172735635</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.04029492401086</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>186.3786332587595</v>
+        <v>19.85835776110153</v>
       </c>
       <c r="L22" t="n">
-        <v>220.593236197106</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="M22" t="n">
+        <v>233.102173597807</v>
+      </c>
+      <c r="N22" t="n">
         <v>282.8345199817477</v>
       </c>
-      <c r="N22" t="n">
-        <v>53.61377401642693</v>
-      </c>
       <c r="O22" t="n">
-        <v>36.18412138288063</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="P22" t="n">
-        <v>229.0565700197435</v>
+        <v>18.44633124983937</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.20927277331582</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>163.151174678886</v>
+        <v>205.5857919524495</v>
       </c>
       <c r="K24" t="n">
         <v>82.34877971935846</v>
@@ -36460,7 +36460,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R24" t="n">
-        <v>42.43461727356352</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>19.85835776110154</v>
+        <v>129.7042779411938</v>
       </c>
       <c r="L25" t="n">
+        <v>45.04698064439881</v>
+      </c>
+      <c r="M25" t="n">
         <v>282.8345199817478</v>
       </c>
-      <c r="M25" t="n">
-        <v>49.63500176325282</v>
-      </c>
       <c r="N25" t="n">
-        <v>255.6914530463979</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="O25" t="n">
         <v>282.8345199817478</v>
       </c>
       <c r="P25" t="n">
-        <v>229.0565700197435</v>
+        <v>18.44633124983939</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>78.20927277331582</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>163.1511746788862</v>
+        <v>205.5857919524495</v>
       </c>
       <c r="K27" t="n">
         <v>82.34877971935846</v>
@@ -36697,7 +36697,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R27" t="n">
-        <v>42.43461727356352</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.04029492401086</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>186.3786332587595</v>
+        <v>19.85835776110154</v>
       </c>
       <c r="L28" t="n">
-        <v>282.8345199817479</v>
+        <v>255.6914530463979</v>
       </c>
       <c r="M28" t="n">
-        <v>220.5932361971065</v>
+        <v>49.63500176325282</v>
       </c>
       <c r="N28" t="n">
-        <v>53.61377401642693</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="O28" t="n">
-        <v>36.18412138288063</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="P28" t="n">
         <v>229.0565700197435</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.20927277331582</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.1580536792433</v>
+        <v>205.5857919524495</v>
       </c>
       <c r="K30" t="n">
-        <v>103.1933030984498</v>
+        <v>82.34877971935846</v>
       </c>
       <c r="L30" t="n">
         <v>141.1418864506165</v>
@@ -36928,7 +36928,7 @@
         <v>160.6611442771315</v>
       </c>
       <c r="P30" t="n">
-        <v>282.8345199817477</v>
+        <v>116.2513050876331</v>
       </c>
       <c r="Q30" t="n">
         <v>44.93568884353034</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.04029492401086</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>19.85835776110154</v>
       </c>
       <c r="L31" t="n">
-        <v>200.0618786737961</v>
+        <v>233.1021735978069</v>
       </c>
       <c r="M31" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="N31" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="O31" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="P31" t="n">
         <v>18.44633124983939</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>83.41241624783305</v>
+        <v>18.1580536792433</v>
       </c>
       <c r="K33" t="n">
         <v>82.34877971935846</v>
@@ -37162,16 +37162,16 @@
         <v>191.5708471075241</v>
       </c>
       <c r="O33" t="n">
-        <v>282.8345199817477</v>
+        <v>160.6611442771315</v>
       </c>
       <c r="P33" t="n">
         <v>116.2513050876331</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.93568884353034</v>
+        <v>189.9288098431728</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>42.43461727356352</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,10 +37232,10 @@
         <v>19.85835776110154</v>
       </c>
       <c r="L34" t="n">
+        <v>233.1021735978069</v>
+      </c>
+      <c r="M34" t="n">
         <v>282.8345199817477</v>
-      </c>
-      <c r="M34" t="n">
-        <v>233.1021735978069</v>
       </c>
       <c r="N34" t="n">
         <v>282.8345199817477</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>205.5857919524497</v>
+        <v>163.1511746788862</v>
       </c>
       <c r="K36" t="n">
         <v>82.34877971935846</v>
@@ -37408,7 +37408,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.43461727356352</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>186.3786332587595</v>
       </c>
       <c r="L37" t="n">
-        <v>266.741121394633</v>
+        <v>45.04698064439881</v>
       </c>
       <c r="M37" t="n">
-        <v>49.63500176325282</v>
+        <v>282.8345199817479</v>
       </c>
       <c r="N37" t="n">
         <v>282.8345199817479</v>
       </c>
       <c r="O37" t="n">
-        <v>282.8345199817479</v>
+        <v>60.7189037435831</v>
       </c>
       <c r="P37" t="n">
-        <v>18.44633124983939</v>
+        <v>229.0565700197435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>177.4149791157478</v>
       </c>
       <c r="N39" t="n">
-        <v>282.8345199817479</v>
+        <v>191.5708471075241</v>
       </c>
       <c r="O39" t="n">
-        <v>214.3905924025509</v>
+        <v>160.6611442771315</v>
       </c>
       <c r="P39" t="n">
         <v>116.2513050876331</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.93568884353034</v>
+        <v>189.9288098431728</v>
       </c>
       <c r="R39" t="n">
         <v>42.43461727356352</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.04029492401086</v>
       </c>
       <c r="K40" t="n">
-        <v>186.3786332587595</v>
+        <v>19.85835776110154</v>
       </c>
       <c r="L40" t="n">
-        <v>240.1826507407453</v>
+        <v>121.8526059004802</v>
       </c>
       <c r="M40" t="n">
-        <v>49.63500176325282</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="N40" t="n">
-        <v>53.61377401642693</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="O40" t="n">
-        <v>282.8345199817479</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="P40" t="n">
-        <v>229.0565700197435</v>
+        <v>18.44633124983939</v>
       </c>
       <c r="Q40" t="n">
         <v>78.20927277331582</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.1580536792433</v>
+        <v>205.5857919524495</v>
       </c>
       <c r="K42" t="n">
-        <v>227.3419007190009</v>
+        <v>82.34877971935846</v>
       </c>
       <c r="L42" t="n">
         <v>141.1418864506165</v>
@@ -37882,7 +37882,7 @@
         <v>44.93568884353034</v>
       </c>
       <c r="R42" t="n">
-        <v>42.43461727356352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>186.3786332587595</v>
+        <v>19.85835776110154</v>
       </c>
       <c r="L43" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="M43" t="n">
-        <v>66.58189810014896</v>
+        <v>49.63500176325282</v>
       </c>
       <c r="N43" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="O43" t="n">
-        <v>282.8345199817477</v>
+        <v>282.8345199817478</v>
       </c>
       <c r="P43" t="n">
-        <v>18.44633124983939</v>
+        <v>201.9135030843935</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.23162641620264</v>
+        <v>51.23162641620254</v>
       </c>
       <c r="K44" t="n">
         <v>110.0960961141099</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>205.5857919524492</v>
+        <v>18.1580536792433</v>
       </c>
       <c r="K45" t="n">
         <v>82.34877971935846</v>
       </c>
       <c r="L45" t="n">
-        <v>141.1418864506165</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="M45" t="n">
         <v>177.4149791157478</v>
@@ -38116,7 +38116,7 @@
         <v>116.2513050876331</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.93568884353034</v>
+        <v>90.670793585605</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>186.3786332587595</v>
+        <v>19.85835776110154</v>
       </c>
       <c r="L46" t="n">
+        <v>45.04698064439881</v>
+      </c>
+      <c r="M46" t="n">
         <v>282.8345199817477</v>
       </c>
-      <c r="M46" t="n">
-        <v>49.63500176325282</v>
-      </c>
       <c r="N46" t="n">
-        <v>53.61377401642693</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="O46" t="n">
-        <v>240.1826507407449</v>
+        <v>282.8345199817477</v>
       </c>
       <c r="P46" t="n">
-        <v>229.0565700197435</v>
+        <v>206.5015242032474</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.20927277331582</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
